--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_12_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_12_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2985425.142211154</v>
+        <v>-2986180.327032153</v>
       </c>
     </row>
     <row r="7">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="I9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K10" t="n">
         <v>6.876045741711437</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>3.33498035419292</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.33498035419292</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.2488867219979</v>
       </c>
       <c r="C11" t="n">
         <v>233.7879368295249</v>
       </c>
       <c r="D11" t="n">
-        <v>223.1980866792003</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.3190023073313</v>
       </c>
       <c r="H11" t="n">
         <v>202.8817137718235</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.16915932597061</v>
+        <v>66.16915932597065</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.8207955450481</v>
+        <v>119.8207955450482</v>
       </c>
       <c r="V11" t="n">
-        <v>196.2673035286522</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>192.7949809290263</v>
+        <v>61.18564412996469</v>
       </c>
       <c r="X11" t="n">
-        <v>238.2461457369864</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.7529837145709</v>
       </c>
     </row>
     <row r="12">
@@ -1449,22 +1449,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>41.2235440468331</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>15.96011062315611</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>26.1601255139183</v>
       </c>
       <c r="F12" t="n">
-        <v>13.58425745190121</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>5.591691251875124</v>
+        <v>137.0766461933578</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6580325013388</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>35.24120494600962</v>
+        <v>35.24120494600965</v>
       </c>
       <c r="T12" t="n">
-        <v>67.60409646695841</v>
+        <v>68.82385123136218</v>
       </c>
       <c r="U12" t="n">
-        <v>94.43886983884394</v>
+        <v>94.43886983884397</v>
       </c>
       <c r="V12" t="n">
         <v>101.3156322079426</v>
       </c>
       <c r="W12" t="n">
-        <v>120.2100282194369</v>
+        <v>120.210028219437</v>
       </c>
       <c r="X12" t="n">
-        <v>185.1658175277377</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.34702524045463</v>
+        <v>48.34702524045466</v>
       </c>
       <c r="C13" t="n">
-        <v>35.76186615714516</v>
+        <v>35.76186615714519</v>
       </c>
       <c r="D13" t="n">
-        <v>17.13051807672969</v>
+        <v>17.13051807672971</v>
       </c>
       <c r="E13" t="n">
-        <v>14.9490077050865</v>
+        <v>14.94900770508653</v>
       </c>
       <c r="F13" t="n">
-        <v>13.93609308144858</v>
+        <v>13.9360930814486</v>
       </c>
       <c r="G13" t="n">
-        <v>36.28228876062837</v>
+        <v>36.2822887606284</v>
       </c>
       <c r="H13" t="n">
-        <v>28.75300418497443</v>
+        <v>28.75300418497445</v>
       </c>
       <c r="I13" t="n">
-        <v>17.23717861124592</v>
+        <v>17.23717861124595</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.74846774208831</v>
+        <v>35.74846774208834</v>
       </c>
       <c r="S13" t="n">
-        <v>88.63254079350246</v>
+        <v>88.63254079350249</v>
       </c>
       <c r="T13" t="n">
-        <v>95.50467304604037</v>
+        <v>95.50467304604041</v>
       </c>
       <c r="U13" t="n">
         <v>154.8218706519347</v>
       </c>
       <c r="V13" t="n">
-        <v>120.6526883823453</v>
+        <v>120.6526883823454</v>
       </c>
       <c r="W13" t="n">
-        <v>155.0380433951083</v>
+        <v>155.0380433951084</v>
       </c>
       <c r="X13" t="n">
-        <v>94.22470044755448</v>
+        <v>94.22470044755451</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.09969841061212</v>
+        <v>87.09969841061215</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>251.2488867219979</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.7879368295249</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>250.4454151307791</v>
       </c>
       <c r="F14" t="n">
-        <v>195.153688734567</v>
+        <v>216.1187356196135</v>
       </c>
       <c r="G14" t="n">
         <v>283.3190023073313</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.2461457369864</v>
+        <v>238.2461457369863</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.7529837145709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,19 +1686,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>41.22354404683307</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>15.96011062315608</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>26.16012551391827</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.58425745190121</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>5.591691251875124</v>
+        <v>5.591691251875096</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.24120494600962</v>
+        <v>35.2412049460096</v>
       </c>
       <c r="T15" t="n">
-        <v>67.60409646695841</v>
+        <v>67.60409646695838</v>
       </c>
       <c r="U15" t="n">
-        <v>205.3166571045868</v>
+        <v>94.43886983884391</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>101.3156322079426</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>120.2100282194369</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>74.28803026199478</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>185.0755281015648</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.34702524045463</v>
+        <v>48.3470252404546</v>
       </c>
       <c r="C16" t="n">
-        <v>35.76186615714516</v>
+        <v>35.76186615714514</v>
       </c>
       <c r="D16" t="n">
-        <v>17.13051807672969</v>
+        <v>17.13051807672966</v>
       </c>
       <c r="E16" t="n">
-        <v>14.9490077050865</v>
+        <v>14.94900770508647</v>
       </c>
       <c r="F16" t="n">
-        <v>13.93609308144858</v>
+        <v>13.93609308144855</v>
       </c>
       <c r="G16" t="n">
-        <v>36.28228876062837</v>
+        <v>36.28228876062834</v>
       </c>
       <c r="H16" t="n">
-        <v>28.75300418497443</v>
+        <v>28.7530041849744</v>
       </c>
       <c r="I16" t="n">
-        <v>17.23717861124592</v>
+        <v>17.23717861124589</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.74846774208831</v>
+        <v>35.74846774208829</v>
       </c>
       <c r="S16" t="n">
-        <v>88.63254079350246</v>
+        <v>88.63254079350243</v>
       </c>
       <c r="T16" t="n">
-        <v>95.50467304604037</v>
+        <v>95.50467304604035</v>
       </c>
       <c r="U16" t="n">
         <v>154.8218706519347</v>
@@ -1828,10 +1828,10 @@
         <v>155.0380433951083</v>
       </c>
       <c r="X16" t="n">
-        <v>94.22470044755448</v>
+        <v>94.22470044755445</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.09969841061212</v>
+        <v>87.09969841061209</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.0864490390111</v>
+        <v>145.0864490390112</v>
       </c>
       <c r="C17" t="n">
-        <v>127.6254991465381</v>
+        <v>127.6254991465382</v>
       </c>
       <c r="D17" t="n">
-        <v>117.0356489962135</v>
+        <v>117.0356489962136</v>
       </c>
       <c r="E17" t="n">
-        <v>144.2829774477923</v>
+        <v>144.2829774477924</v>
       </c>
       <c r="F17" t="n">
-        <v>169.228653117242</v>
+        <v>169.2286531172421</v>
       </c>
       <c r="G17" t="n">
-        <v>177.1565646243445</v>
+        <v>177.1565646243446</v>
       </c>
       <c r="H17" t="n">
-        <v>96.71927608883675</v>
+        <v>96.71927608883681</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.65835786206137</v>
+        <v>13.65835786206142</v>
       </c>
       <c r="V17" t="n">
-        <v>90.10486584566547</v>
+        <v>90.10486584566553</v>
       </c>
       <c r="W17" t="n">
         <v>111.5935760929436</v>
       </c>
       <c r="X17" t="n">
-        <v>132.0837080539996</v>
+        <v>132.0837080539997</v>
       </c>
       <c r="Y17" t="n">
         <v>148.5905460315842</v>
@@ -1929,10 +1929,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>70.37728327543527</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1977,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9238247803266</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>20.61441715292462</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>180.1922534745488</v>
       </c>
       <c r="T19" t="n">
-        <v>180.1922534745491</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.65943296894794</v>
+        <v>48.659432968948</v>
       </c>
       <c r="V19" t="n">
-        <v>14.49025069935857</v>
+        <v>14.49025069935863</v>
       </c>
       <c r="W19" t="n">
-        <v>48.87560571212157</v>
+        <v>48.87560571212163</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>177.1565646243445</v>
       </c>
       <c r="H20" t="n">
-        <v>96.71927608883675</v>
+        <v>96.71927608883672</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.65835786206137</v>
+        <v>13.65835786206134</v>
       </c>
       <c r="V20" t="n">
-        <v>90.10486584566547</v>
+        <v>90.10486584566544</v>
       </c>
       <c r="W20" t="n">
         <v>111.5935760929436</v>
@@ -2147,7 +2147,7 @@
         <v>132.0837080539996</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.5905460315842</v>
+        <v>148.5905460315841</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2163,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>12.04936363659626</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9238247803266</v>
       </c>
       <c r="V21" t="n">
-        <v>178.2594976083258</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>180.192253474549</v>
       </c>
       <c r="T22" t="n">
-        <v>180.1922534745491</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.65943296894794</v>
+        <v>48.65943296894791</v>
       </c>
       <c r="V22" t="n">
-        <v>14.49025069935857</v>
+        <v>14.49025069935854</v>
       </c>
       <c r="W22" t="n">
-        <v>48.87560571212157</v>
+        <v>48.87560571212154</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>177.1565646243445</v>
       </c>
       <c r="H23" t="n">
-        <v>96.71927608883676</v>
+        <v>96.71927608883674</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.65835786206137</v>
+        <v>13.65835786206135</v>
       </c>
       <c r="V23" t="n">
-        <v>90.10486584566547</v>
+        <v>90.10486584566544</v>
       </c>
       <c r="W23" t="n">
         <v>111.5935760929436</v>
@@ -2384,7 +2384,7 @@
         <v>132.0837080539996</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.5905460315842</v>
+        <v>148.5905460315841</v>
       </c>
     </row>
     <row r="24">
@@ -2400,13 +2400,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>12.04936363659648</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9238247803266</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>20.61441715292462</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>180.1922534745491</v>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
       <c r="U25" t="n">
-        <v>48.65943296894794</v>
+        <v>48.65943296894791</v>
       </c>
       <c r="V25" t="n">
-        <v>14.49025069935857</v>
+        <v>14.49025069935854</v>
       </c>
       <c r="W25" t="n">
-        <v>48.87560571212157</v>
+        <v>48.87560571212154</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.5396574966445</v>
+        <v>232.5396574966446</v>
       </c>
       <c r="C26" t="n">
         <v>215.0787076041715</v>
@@ -2561,7 +2561,7 @@
         <v>204.4888574538469</v>
       </c>
       <c r="E26" t="n">
-        <v>231.7361859054257</v>
+        <v>231.7361859054258</v>
       </c>
       <c r="F26" t="n">
         <v>256.6818615748754</v>
@@ -2570,10 +2570,10 @@
         <v>264.6097730819779</v>
       </c>
       <c r="H26" t="n">
-        <v>184.1724845464701</v>
+        <v>184.1724845464702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.0524791862257</v>
+        <v>41.05247918622572</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.45993010061724</v>
+        <v>47.45993010061727</v>
       </c>
       <c r="T26" t="n">
-        <v>70.71825478147471</v>
+        <v>70.71825478147474</v>
       </c>
       <c r="U26" t="n">
         <v>101.1115663196948</v>
@@ -2621,7 +2621,7 @@
         <v>219.536916511633</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.0437544892175</v>
+        <v>236.0437544892176</v>
       </c>
     </row>
     <row r="27">
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>16.53197572065626</v>
+        <v>16.53197572065628</v>
       </c>
       <c r="T27" t="n">
-        <v>48.89486724160503</v>
+        <v>48.89486724160506</v>
       </c>
       <c r="U27" t="n">
-        <v>157.8544897695847</v>
+        <v>157.8544897695843</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.63779601510126</v>
+        <v>29.63779601510129</v>
       </c>
       <c r="C28" t="n">
-        <v>17.0526369317918</v>
+        <v>17.05263693179182</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.573059535275</v>
+        <v>17.57305953527502</v>
       </c>
       <c r="H28" t="n">
-        <v>10.04377495962106</v>
+        <v>10.04377495962109</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.03923851673494</v>
+        <v>17.03923851673498</v>
       </c>
       <c r="S28" t="n">
-        <v>69.92331156814909</v>
+        <v>69.92331156814912</v>
       </c>
       <c r="T28" t="n">
-        <v>76.795443820687</v>
+        <v>76.79544382068704</v>
       </c>
       <c r="U28" t="n">
-        <v>136.1126414265813</v>
+        <v>136.1126414265814</v>
       </c>
       <c r="V28" t="n">
         <v>101.943459156992</v>
@@ -2776,10 +2776,10 @@
         <v>136.328814169755</v>
       </c>
       <c r="X28" t="n">
-        <v>75.51547122220111</v>
+        <v>75.51547122220114</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.39046918525875</v>
+        <v>68.39046918525878</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>184.1724845464702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.05247918622575</v>
+        <v>41.05247918622578</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.45993010061731</v>
+        <v>47.45993010061734</v>
       </c>
       <c r="T29" t="n">
-        <v>70.71825478147477</v>
+        <v>70.7182547814748</v>
       </c>
       <c r="U29" t="n">
         <v>101.1115663196948</v>
       </c>
       <c r="V29" t="n">
-        <v>177.5580743032989</v>
+        <v>177.558074303299</v>
       </c>
       <c r="W29" t="n">
-        <v>199.046784550577</v>
+        <v>199.0467845505771</v>
       </c>
       <c r="X29" t="n">
         <v>219.5369165116331</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>166.7261598874923</v>
+        <v>16.53197572065634</v>
       </c>
       <c r="T30" t="n">
-        <v>48.89486724160509</v>
+        <v>48.89486724160512</v>
       </c>
       <c r="U30" t="n">
-        <v>157.8544897695847</v>
+        <v>157.8544897695843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>55.57880103664149</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.63779601510132</v>
+        <v>29.63779601510134</v>
       </c>
       <c r="C31" t="n">
-        <v>17.05263693179185</v>
+        <v>17.05263693179188</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.57305953527505</v>
+        <v>17.57305953527508</v>
       </c>
       <c r="H31" t="n">
-        <v>10.04377495962111</v>
+        <v>10.04377495962114</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.039238516735</v>
+        <v>17.03923851673503</v>
       </c>
       <c r="S31" t="n">
-        <v>69.92331156814915</v>
+        <v>69.92331156814917</v>
       </c>
       <c r="T31" t="n">
-        <v>76.79544382068705</v>
+        <v>76.7954438206871</v>
       </c>
       <c r="U31" t="n">
         <v>136.1126414265814</v>
@@ -3013,10 +3013,10 @@
         <v>136.328814169755</v>
       </c>
       <c r="X31" t="n">
-        <v>75.51547122220117</v>
+        <v>75.5154712222012</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.39046918525881</v>
+        <v>68.39046918525884</v>
       </c>
     </row>
     <row r="32">
@@ -3162,7 +3162,7 @@
         <v>47.11589668730952</v>
       </c>
       <c r="U33" t="n">
-        <v>161.412430878176</v>
+        <v>161.4124308781756</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3202,7 +3202,7 @@
         <v>15.79408898097949</v>
       </c>
       <c r="H34" t="n">
-        <v>8.264804405325545</v>
+        <v>8.264804405325547</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>68.14434101385358</v>
       </c>
       <c r="T34" t="n">
-        <v>75.01647326639149</v>
+        <v>75.0164732663915</v>
       </c>
       <c r="U34" t="n">
         <v>134.3336708722858</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>223.281332731846</v>
+        <v>223.2813327318457</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3557,7 +3557,7 @@
         <v>18.04985066264936</v>
       </c>
       <c r="U38" t="n">
-        <v>48.44316220086941</v>
+        <v>48.44316220086942</v>
       </c>
       <c r="V38" t="n">
         <v>124.8896701844735</v>
@@ -3591,7 +3591,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>142.4267203449034</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9238247803266</v>
+        <v>223.2813327318457</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3749,13 +3749,13 @@
         <v>179.0677817866004</v>
       </c>
       <c r="F41" t="n">
-        <v>204.0134574560501</v>
+        <v>204.01345745605</v>
       </c>
       <c r="G41" t="n">
         <v>211.9413689631526</v>
       </c>
       <c r="H41" t="n">
-        <v>131.5040804276449</v>
+        <v>131.5040804276448</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.04985066264942</v>
+        <v>18.04985066264936</v>
       </c>
       <c r="U41" t="n">
-        <v>48.44316220086947</v>
+        <v>48.44316220086941</v>
       </c>
       <c r="V41" t="n">
-        <v>124.8896701844736</v>
+        <v>124.8896701844735</v>
       </c>
       <c r="W41" t="n">
-        <v>146.3783804317517</v>
+        <v>146.3783804317516</v>
       </c>
       <c r="X41" t="n">
-        <v>166.8685123928077</v>
+        <v>166.8685123928076</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.3753503703923</v>
+        <v>183.3753503703922</v>
       </c>
     </row>
     <row r="42">
@@ -3828,10 +3828,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0766461933578</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>142.4267203449032</v>
       </c>
       <c r="U42" t="n">
-        <v>86.2046865384883</v>
+        <v>225.9238247803266</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.2549074493238</v>
+        <v>17.25490744932374</v>
       </c>
       <c r="T43" t="n">
-        <v>24.12703970186171</v>
+        <v>24.12703970186165</v>
       </c>
       <c r="U43" t="n">
-        <v>83.44423730775604</v>
+        <v>83.44423730775598</v>
       </c>
       <c r="V43" t="n">
-        <v>49.27505503816667</v>
+        <v>49.27505503816661</v>
       </c>
       <c r="W43" t="n">
-        <v>83.66041005092967</v>
+        <v>83.66041005092961</v>
       </c>
       <c r="X43" t="n">
-        <v>22.84706710337582</v>
+        <v>22.84706710337576</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.72206506643346</v>
+        <v>15.7220650664334</v>
       </c>
     </row>
     <row r="44">
@@ -3986,13 +3986,13 @@
         <v>179.0677817866004</v>
       </c>
       <c r="F44" t="n">
-        <v>204.01345745605</v>
+        <v>204.0134574560501</v>
       </c>
       <c r="G44" t="n">
         <v>211.9413689631526</v>
       </c>
       <c r="H44" t="n">
-        <v>131.5040804276448</v>
+        <v>131.5040804276449</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.04985066264936</v>
+        <v>18.04985066264942</v>
       </c>
       <c r="U44" t="n">
-        <v>48.44316220086941</v>
+        <v>48.44316220086947</v>
       </c>
       <c r="V44" t="n">
-        <v>124.8896701844735</v>
+        <v>124.8896701844736</v>
       </c>
       <c r="W44" t="n">
-        <v>146.3783804317516</v>
+        <v>146.3783804317517</v>
       </c>
       <c r="X44" t="n">
-        <v>166.8685123928076</v>
+        <v>166.8685123928077</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.3753503703922</v>
+        <v>183.3753503703923</v>
       </c>
     </row>
     <row r="45">
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.7261598874923</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>56.55517284435356</v>
+        <v>223.2813327318457</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.25490744932374</v>
+        <v>17.2549074493238</v>
       </c>
       <c r="T46" t="n">
-        <v>24.12703970186165</v>
+        <v>24.12703970186171</v>
       </c>
       <c r="U46" t="n">
-        <v>83.44423730775598</v>
+        <v>83.44423730775604</v>
       </c>
       <c r="V46" t="n">
-        <v>49.27505503816661</v>
+        <v>49.27505503816667</v>
       </c>
       <c r="W46" t="n">
-        <v>83.66041005092961</v>
+        <v>83.66041005092967</v>
       </c>
       <c r="X46" t="n">
-        <v>22.84706710337576</v>
+        <v>22.84706710337582</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.7220650664334</v>
+        <v>15.72206506643346</v>
       </c>
     </row>
   </sheetData>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E8" t="n">
         <v>14.44108515774386</v>
@@ -4805,49 +4805,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>13.8896123982571</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M8" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.19521781052957</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C9" t="n">
-        <v>15.19521781052957</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19521781052957</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="E9" t="n">
-        <v>15.19521781052957</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F9" t="n">
-        <v>8.2497170613261</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G9" t="n">
-        <v>8.2497170613261</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H9" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I9" t="n">
         <v>1.304216312122629</v>
@@ -4887,46 +4887,46 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="N9" t="n">
         <v>7.082327113962777</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="N9" t="n">
-        <v>13.8896123982571</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="P9" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W9" t="n">
-        <v>15.19521781052957</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X9" t="n">
-        <v>15.19521781052957</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.19521781052957</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="J10" t="n">
         <v>7.495584408540386</v>
@@ -4966,7 +4966,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M10" t="n">
         <v>13.8896123982571</v>
@@ -4990,22 +4990,22 @@
         <v>24.75525293138463</v>
       </c>
       <c r="T10" t="n">
-        <v>24.75525293138463</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U10" t="n">
-        <v>24.75525293138463</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V10" t="n">
-        <v>24.75525293138463</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W10" t="n">
         <v>21.38658590694733</v>
       </c>
       <c r="X10" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>696.9013656790996</v>
+        <v>757.6295632832724</v>
       </c>
       <c r="C11" t="n">
-        <v>460.7519345381654</v>
+        <v>521.4801321423382</v>
       </c>
       <c r="D11" t="n">
-        <v>235.2993217308923</v>
+        <v>521.4801321423382</v>
       </c>
       <c r="E11" t="n">
-        <v>235.2993217308923</v>
+        <v>521.4801321423382</v>
       </c>
       <c r="F11" t="n">
-        <v>235.2993217308923</v>
+        <v>521.4801321423382</v>
       </c>
       <c r="G11" t="n">
         <v>235.2993217308923</v>
@@ -5039,16 +5039,16 @@
         <v>30.36829771894934</v>
       </c>
       <c r="J11" t="n">
-        <v>60.44851937026665</v>
+        <v>60.44851937026664</v>
       </c>
       <c r="K11" t="n">
         <v>226.2757783802111</v>
       </c>
       <c r="L11" t="n">
-        <v>484.2757841735619</v>
+        <v>484.2757841735618</v>
       </c>
       <c r="M11" t="n">
-        <v>787.9570473707342</v>
+        <v>787.9570473707341</v>
       </c>
       <c r="N11" t="n">
         <v>1081.92019334961</v>
@@ -5075,16 +5075,16 @@
         <v>1330.54624466361</v>
       </c>
       <c r="V11" t="n">
-        <v>1132.296443119516</v>
+        <v>1330.54624466361</v>
       </c>
       <c r="W11" t="n">
-        <v>937.5540381407021</v>
+        <v>1268.742563724251</v>
       </c>
       <c r="X11" t="n">
-        <v>696.9013656790996</v>
+        <v>1268.742563724251</v>
       </c>
       <c r="Y11" t="n">
-        <v>696.9013656790996</v>
+        <v>1011.416317547917</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>532.3628368221127</v>
+        <v>510.3154404179271</v>
       </c>
       <c r="C12" t="n">
-        <v>357.9098075409858</v>
+        <v>468.6754969362775</v>
       </c>
       <c r="D12" t="n">
-        <v>208.9753978797345</v>
+        <v>452.5541730745036</v>
       </c>
       <c r="E12" t="n">
-        <v>49.73794287427897</v>
+        <v>426.1298038685255</v>
       </c>
       <c r="F12" t="n">
-        <v>36.01647070064138</v>
+        <v>279.5952458954105</v>
       </c>
       <c r="G12" t="n">
-        <v>30.36829771894934</v>
+        <v>141.133987114241</v>
       </c>
       <c r="H12" t="n">
         <v>30.36829771894934</v>
@@ -5127,7 +5127,7 @@
         <v>509.9395241401432</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9395241401432</v>
+        <v>870.5867664880502</v>
       </c>
       <c r="N12" t="n">
         <v>870.5867664880502</v>
@@ -5148,22 +5148,22 @@
         <v>1482.817709234326</v>
       </c>
       <c r="T12" t="n">
-        <v>1414.530743106085</v>
+        <v>1413.298667586485</v>
       </c>
       <c r="U12" t="n">
-        <v>1319.137945289071</v>
+        <v>1317.905869769471</v>
       </c>
       <c r="V12" t="n">
-        <v>1216.798922856806</v>
+        <v>1215.566847337206</v>
       </c>
       <c r="W12" t="n">
-        <v>1095.374651928082</v>
+        <v>1094.142576408482</v>
       </c>
       <c r="X12" t="n">
-        <v>908.3384726071347</v>
+        <v>886.2910762029489</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.5781738421808</v>
+        <v>678.5307774379951</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>196.0753245646652</v>
+        <v>196.0753245646654</v>
       </c>
       <c r="C13" t="n">
-        <v>159.9522274362357</v>
+        <v>159.9522274362359</v>
       </c>
       <c r="D13" t="n">
-        <v>142.6486738233774</v>
+        <v>142.6486738233775</v>
       </c>
       <c r="E13" t="n">
-        <v>127.5486660404618</v>
+        <v>127.5486660404619</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4718043420288</v>
+        <v>113.4718043420289</v>
       </c>
       <c r="G13" t="n">
-        <v>76.8230278161416</v>
+        <v>76.82302781614166</v>
       </c>
       <c r="H13" t="n">
-        <v>47.77958924546037</v>
+        <v>47.7795892454604</v>
       </c>
       <c r="I13" t="n">
         <v>30.36829771894934</v>
       </c>
       <c r="J13" t="n">
-        <v>30.36829771894934</v>
+        <v>75.59771876966823</v>
       </c>
       <c r="K13" t="n">
-        <v>164.2256813965082</v>
+        <v>79.28499705515924</v>
       </c>
       <c r="L13" t="n">
-        <v>354.640668111485</v>
+        <v>269.6999837701359</v>
       </c>
       <c r="M13" t="n">
-        <v>558.719676997409</v>
+        <v>473.7789926560599</v>
       </c>
       <c r="N13" t="n">
-        <v>766.4759137746241</v>
+        <v>681.5352294332749</v>
       </c>
       <c r="O13" t="n">
-        <v>952.2930736656408</v>
+        <v>867.3523893242915</v>
       </c>
       <c r="P13" t="n">
-        <v>1021.617480937054</v>
+        <v>1021.617480937055</v>
       </c>
       <c r="Q13" t="n">
         <v>1085.034625685515</v>
@@ -5224,25 +5224,25 @@
         <v>1048.925062309668</v>
       </c>
       <c r="S13" t="n">
-        <v>959.3972433263318</v>
+        <v>959.3972433263323</v>
       </c>
       <c r="T13" t="n">
-        <v>862.9278766131597</v>
+        <v>862.9278766131602</v>
       </c>
       <c r="U13" t="n">
-        <v>706.5421486819125</v>
+        <v>706.542148681913</v>
       </c>
       <c r="V13" t="n">
-        <v>584.6707462755031</v>
+        <v>584.6707462755035</v>
       </c>
       <c r="W13" t="n">
-        <v>428.06666203802</v>
+        <v>428.0666620380202</v>
       </c>
       <c r="X13" t="n">
-        <v>332.8901969394801</v>
+        <v>332.8901969394803</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.9107035954274</v>
+        <v>244.9107035954276</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>766.6492130448862</v>
+        <v>1023.97545922122</v>
       </c>
       <c r="C14" t="n">
-        <v>766.6492130448862</v>
+        <v>787.8260280802862</v>
       </c>
       <c r="D14" t="n">
-        <v>766.6492130448862</v>
+        <v>787.8260280802862</v>
       </c>
       <c r="E14" t="n">
-        <v>513.6740462461194</v>
+        <v>534.8508612815194</v>
       </c>
       <c r="F14" t="n">
-        <v>316.5491081303951</v>
+        <v>316.549108130395</v>
       </c>
       <c r="G14" t="n">
         <v>30.36829771894934</v>
@@ -5276,16 +5276,16 @@
         <v>30.36829771894934</v>
       </c>
       <c r="J14" t="n">
-        <v>60.44851937026665</v>
+        <v>60.44851937026663</v>
       </c>
       <c r="K14" t="n">
         <v>226.2757783802111</v>
       </c>
       <c r="L14" t="n">
-        <v>484.2757841735619</v>
+        <v>484.2757841735618</v>
       </c>
       <c r="M14" t="n">
-        <v>787.9570473707342</v>
+        <v>787.9570473707341</v>
       </c>
       <c r="N14" t="n">
         <v>1081.92019334961</v>
@@ -5321,7 +5321,7 @@
         <v>1277.762213485865</v>
       </c>
       <c r="Y14" t="n">
-        <v>1020.43596730953</v>
+        <v>1277.762213485865</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>133.9235794236804</v>
+        <v>665.1759226215902</v>
       </c>
       <c r="C15" t="n">
-        <v>92.28363594203086</v>
+        <v>490.7228933404631</v>
       </c>
       <c r="D15" t="n">
-        <v>76.16231208025702</v>
+        <v>341.7884836792119</v>
       </c>
       <c r="E15" t="n">
-        <v>49.73794287427897</v>
+        <v>182.5510286737564</v>
       </c>
       <c r="F15" t="n">
-        <v>36.01647070064138</v>
+        <v>36.01647070064136</v>
       </c>
       <c r="G15" t="n">
         <v>30.36829771894934</v>
@@ -5361,16 +5361,16 @@
         <v>30.36829771894934</v>
       </c>
       <c r="L15" t="n">
-        <v>222.0911432097128</v>
+        <v>317.696898714225</v>
       </c>
       <c r="M15" t="n">
-        <v>597.8988274817109</v>
+        <v>693.5045829862231</v>
       </c>
       <c r="N15" t="n">
-        <v>973.706511753709</v>
+        <v>1069.312267258221</v>
       </c>
       <c r="O15" t="n">
-        <v>1285.32036446307</v>
+        <v>1380.926119967583</v>
       </c>
       <c r="P15" t="n">
         <v>1518.414885947467</v>
@@ -5385,22 +5385,22 @@
         <v>1482.817709234326</v>
       </c>
       <c r="T15" t="n">
-        <v>1414.530743106085</v>
+        <v>1414.530743106086</v>
       </c>
       <c r="U15" t="n">
-        <v>1207.140180374179</v>
+        <v>1319.137945289071</v>
       </c>
       <c r="V15" t="n">
-        <v>971.9880721424367</v>
+        <v>1216.798922856806</v>
       </c>
       <c r="W15" t="n">
-        <v>717.7507154142352</v>
+        <v>1095.374651928082</v>
       </c>
       <c r="X15" t="n">
-        <v>509.8992152087024</v>
+        <v>1020.336237522027</v>
       </c>
       <c r="Y15" t="n">
-        <v>302.1389164437485</v>
+        <v>833.3912596416583</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.0753245646652</v>
+        <v>196.075324564665</v>
       </c>
       <c r="C16" t="n">
-        <v>159.9522274362357</v>
+        <v>159.9522274362355</v>
       </c>
       <c r="D16" t="n">
-        <v>142.6486738233774</v>
+        <v>142.6486738233773</v>
       </c>
       <c r="E16" t="n">
-        <v>127.5486660404618</v>
+        <v>127.5486660404617</v>
       </c>
       <c r="F16" t="n">
         <v>113.4718043420288</v>
       </c>
       <c r="G16" t="n">
-        <v>76.8230278161416</v>
+        <v>76.82302781614156</v>
       </c>
       <c r="H16" t="n">
-        <v>47.77958924546037</v>
+        <v>47.77958924546035</v>
       </c>
       <c r="I16" t="n">
         <v>30.36829771894934</v>
       </c>
       <c r="J16" t="n">
-        <v>30.36829771894934</v>
+        <v>83.7727445902573</v>
       </c>
       <c r="K16" t="n">
-        <v>164.2256813965082</v>
+        <v>87.46002287574831</v>
       </c>
       <c r="L16" t="n">
-        <v>354.640668111485</v>
+        <v>269.6999837701347</v>
       </c>
       <c r="M16" t="n">
-        <v>473.7789926560593</v>
+        <v>473.7789926560588</v>
       </c>
       <c r="N16" t="n">
-        <v>681.5352294332744</v>
+        <v>681.5352294332739</v>
       </c>
       <c r="O16" t="n">
-        <v>867.352389324291</v>
+        <v>867.3523893242906</v>
       </c>
       <c r="P16" t="n">
         <v>1021.617480937054</v>
       </c>
       <c r="Q16" t="n">
-        <v>1085.034625685515</v>
+        <v>1085.034625685514</v>
       </c>
       <c r="R16" t="n">
-        <v>1048.925062309668</v>
+        <v>1048.925062309667</v>
       </c>
       <c r="S16" t="n">
-        <v>959.3972433263318</v>
+        <v>959.3972433263315</v>
       </c>
       <c r="T16" t="n">
-        <v>862.9278766131597</v>
+        <v>862.9278766131594</v>
       </c>
       <c r="U16" t="n">
-        <v>706.5421486819125</v>
+        <v>706.5421486819122</v>
       </c>
       <c r="V16" t="n">
-        <v>584.6707462755031</v>
+        <v>584.6707462755028</v>
       </c>
       <c r="W16" t="n">
-        <v>428.06666203802</v>
+        <v>428.0666620380197</v>
       </c>
       <c r="X16" t="n">
-        <v>332.8901969394801</v>
+        <v>332.8901969394798</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.9107035954274</v>
+        <v>244.9107035954272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>870.8214486492196</v>
+        <v>870.8214486492194</v>
       </c>
       <c r="C17" t="n">
-        <v>741.9068030466558</v>
+        <v>741.9068030466556</v>
       </c>
       <c r="D17" t="n">
-        <v>623.6889757777533</v>
+        <v>623.6889757777529</v>
       </c>
       <c r="E17" t="n">
-        <v>477.9485945173569</v>
+        <v>477.9485945173566</v>
       </c>
       <c r="F17" t="n">
-        <v>307.0105610655974</v>
+        <v>307.0105610655969</v>
       </c>
       <c r="G17" t="n">
-        <v>128.0645361925218</v>
+        <v>128.0645361925219</v>
       </c>
       <c r="H17" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I17" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J17" t="n">
-        <v>60.44851937026692</v>
+        <v>60.44851937026663</v>
       </c>
       <c r="K17" t="n">
-        <v>226.2757783802115</v>
+        <v>226.2757783802111</v>
       </c>
       <c r="L17" t="n">
-        <v>484.2757841735622</v>
+        <v>484.2757841735618</v>
       </c>
       <c r="M17" t="n">
-        <v>787.9570473707347</v>
+        <v>787.9570473707341</v>
       </c>
       <c r="N17" t="n">
         <v>1081.92019334961</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>424.8439015860097</v>
+        <v>659.5277496398982</v>
       </c>
       <c r="C18" t="n">
-        <v>250.3908723048827</v>
+        <v>485.0747203587712</v>
       </c>
       <c r="D18" t="n">
-        <v>101.4564626436315</v>
+        <v>336.1403106975199</v>
       </c>
       <c r="E18" t="n">
-        <v>30.36829771894935</v>
+        <v>176.9028556920644</v>
       </c>
       <c r="F18" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="G18" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H18" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I18" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J18" t="n">
-        <v>54.5904919813227</v>
+        <v>54.59049198132269</v>
       </c>
       <c r="K18" t="n">
         <v>222.6109231448677</v>
       </c>
       <c r="L18" t="n">
-        <v>509.9395241401434</v>
+        <v>509.9395241401432</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9395241401434</v>
+        <v>870.5867664880504</v>
       </c>
       <c r="N18" t="n">
-        <v>870.5867664880507</v>
+        <v>870.5867664880504</v>
       </c>
       <c r="O18" t="n">
         <v>1182.200619197412</v>
       </c>
       <c r="P18" t="n">
-        <v>1415.295140681809</v>
+        <v>1415.295140681808</v>
       </c>
       <c r="Q18" t="n">
         <v>1518.414885947467</v>
@@ -5625,19 +5625,19 @@
         <v>1518.414885947467</v>
       </c>
       <c r="U18" t="n">
-        <v>1290.209002330976</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="V18" t="n">
-        <v>1055.056894099233</v>
+        <v>1497.592242358654</v>
       </c>
       <c r="W18" t="n">
-        <v>800.8195373710316</v>
+        <v>1243.354885630453</v>
       </c>
       <c r="X18" t="n">
-        <v>800.8195373710316</v>
+        <v>1035.50338542492</v>
       </c>
       <c r="Y18" t="n">
-        <v>593.0592386060778</v>
+        <v>827.7430866599661</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="C19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="D19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="E19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="F19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="G19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="K19" t="n">
-        <v>34.05557600444037</v>
+        <v>34.05557600444035</v>
       </c>
       <c r="L19" t="n">
-        <v>94.30045732734925</v>
+        <v>94.30045732734922</v>
       </c>
       <c r="M19" t="n">
-        <v>168.2093608212055</v>
+        <v>168.2093608212054</v>
       </c>
       <c r="N19" t="n">
-        <v>245.7954922063527</v>
+        <v>245.7954922063526</v>
       </c>
       <c r="O19" t="n">
-        <v>301.4425467053015</v>
+        <v>301.4425467053014</v>
       </c>
       <c r="P19" t="n">
-        <v>325.537532925997</v>
+        <v>325.5375329259969</v>
       </c>
       <c r="Q19" t="n">
-        <v>325.537532925997</v>
+        <v>325.5375329259969</v>
       </c>
       <c r="R19" t="n">
-        <v>325.537532925997</v>
+        <v>325.5375329259969</v>
       </c>
       <c r="S19" t="n">
-        <v>325.537532925997</v>
+        <v>143.5251556789779</v>
       </c>
       <c r="T19" t="n">
-        <v>143.5251556789777</v>
+        <v>143.5251556789779</v>
       </c>
       <c r="U19" t="n">
-        <v>94.37421328610101</v>
+        <v>94.37421328610111</v>
       </c>
       <c r="V19" t="n">
-        <v>79.73759641806205</v>
+        <v>79.7375964180621</v>
       </c>
       <c r="W19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="X19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>870.8214486492195</v>
+        <v>870.8214486492197</v>
       </c>
       <c r="C20" t="n">
-        <v>741.9068030466558</v>
+        <v>741.906803046656</v>
       </c>
       <c r="D20" t="n">
-        <v>623.6889757777533</v>
+        <v>623.6889757777535</v>
       </c>
       <c r="E20" t="n">
-        <v>477.948594517357</v>
+        <v>477.9485945173573</v>
       </c>
       <c r="F20" t="n">
-        <v>307.0105610655974</v>
+        <v>307.0105610655977</v>
       </c>
       <c r="G20" t="n">
         <v>128.0645361925218</v>
       </c>
       <c r="H20" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I20" t="n">
-        <v>30.36829771894988</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J20" t="n">
-        <v>60.44851937026718</v>
+        <v>60.44851937026663</v>
       </c>
       <c r="K20" t="n">
-        <v>226.2757783802116</v>
+        <v>226.2757783802111</v>
       </c>
       <c r="L20" t="n">
-        <v>484.2757841735624</v>
+        <v>484.2757841735618</v>
       </c>
       <c r="M20" t="n">
-        <v>787.9570473707347</v>
+        <v>787.9570473707341</v>
       </c>
       <c r="N20" t="n">
         <v>1081.92019334961</v>
@@ -5795,7 +5795,7 @@
         <v>1167.464878013457</v>
       </c>
       <c r="Y20" t="n">
-        <v>1017.373417375493</v>
+        <v>1017.373417375494</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>500.2902946344426</v>
+        <v>216.9924013804766</v>
       </c>
       <c r="C21" t="n">
-        <v>325.8372653533156</v>
+        <v>42.53937209934961</v>
       </c>
       <c r="D21" t="n">
-        <v>176.9028556920644</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="E21" t="n">
-        <v>176.9028556920644</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="F21" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="G21" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H21" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I21" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J21" t="n">
-        <v>54.5904919813227</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="K21" t="n">
-        <v>222.6109231448677</v>
+        <v>198.3887288824943</v>
       </c>
       <c r="L21" t="n">
-        <v>509.9395241401433</v>
+        <v>485.7173298777699</v>
       </c>
       <c r="M21" t="n">
-        <v>885.7472084121415</v>
+        <v>861.5250141497681</v>
       </c>
       <c r="N21" t="n">
-        <v>1182.200619197412</v>
+        <v>1206.801033238106</v>
       </c>
       <c r="O21" t="n">
-        <v>1182.200619197412</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="P21" t="n">
-        <v>1415.295140681809</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="Q21" t="n">
         <v>1518.414885947467</v>
@@ -5862,19 +5862,19 @@
         <v>1518.414885947467</v>
       </c>
       <c r="U21" t="n">
-        <v>1518.414885947467</v>
+        <v>1290.209002330976</v>
       </c>
       <c r="V21" t="n">
-        <v>1338.354787353199</v>
+        <v>1055.056894099233</v>
       </c>
       <c r="W21" t="n">
-        <v>1084.117430624997</v>
+        <v>800.8195373710314</v>
       </c>
       <c r="X21" t="n">
-        <v>876.2659304194644</v>
+        <v>592.9680371654986</v>
       </c>
       <c r="Y21" t="n">
-        <v>668.5056316545106</v>
+        <v>385.2077384005447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="C22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="D22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="E22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="F22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="G22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="K22" t="n">
-        <v>34.05557600444037</v>
+        <v>34.05557600444035</v>
       </c>
       <c r="L22" t="n">
-        <v>94.30045732734925</v>
+        <v>94.30045732734922</v>
       </c>
       <c r="M22" t="n">
-        <v>168.2093608212055</v>
+        <v>168.2093608212054</v>
       </c>
       <c r="N22" t="n">
-        <v>245.7954922063527</v>
+        <v>245.7954922063526</v>
       </c>
       <c r="O22" t="n">
-        <v>301.4425467053015</v>
+        <v>301.4425467053014</v>
       </c>
       <c r="P22" t="n">
-        <v>325.537532925997</v>
+        <v>325.5375329259969</v>
       </c>
       <c r="Q22" t="n">
-        <v>325.537532925997</v>
+        <v>325.5375329259969</v>
       </c>
       <c r="R22" t="n">
-        <v>325.537532925997</v>
+        <v>325.5375329259969</v>
       </c>
       <c r="S22" t="n">
-        <v>325.537532925997</v>
+        <v>143.5251556789776</v>
       </c>
       <c r="T22" t="n">
-        <v>143.5251556789777</v>
+        <v>143.5251556789776</v>
       </c>
       <c r="U22" t="n">
-        <v>94.37421328610101</v>
+        <v>94.37421328610094</v>
       </c>
       <c r="V22" t="n">
-        <v>79.73759641806205</v>
+        <v>79.73759641806201</v>
       </c>
       <c r="W22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="X22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
     </row>
     <row r="23">
@@ -5972,7 +5972,7 @@
         <v>623.6889757777531</v>
       </c>
       <c r="E23" t="n">
-        <v>477.9485945173568</v>
+        <v>477.9485945173567</v>
       </c>
       <c r="F23" t="n">
         <v>307.0105610655971</v>
@@ -5981,22 +5981,22 @@
         <v>128.0645361925218</v>
       </c>
       <c r="H23" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I23" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J23" t="n">
-        <v>60.44851937026665</v>
+        <v>60.44851937026681</v>
       </c>
       <c r="K23" t="n">
-        <v>226.2757783802111</v>
+        <v>226.2757783802112</v>
       </c>
       <c r="L23" t="n">
-        <v>484.2757841735619</v>
+        <v>484.275784173562</v>
       </c>
       <c r="M23" t="n">
-        <v>787.9570473707342</v>
+        <v>787.9570473707344</v>
       </c>
       <c r="N23" t="n">
         <v>1081.92019334961</v>
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>216.9924013804768</v>
+        <v>659.5277496398982</v>
       </c>
       <c r="C24" t="n">
-        <v>42.53937209934983</v>
+        <v>485.0747203587712</v>
       </c>
       <c r="D24" t="n">
-        <v>30.36829771894935</v>
+        <v>336.1403106975199</v>
       </c>
       <c r="E24" t="n">
-        <v>30.36829771894935</v>
+        <v>176.9028556920644</v>
       </c>
       <c r="F24" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="G24" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H24" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I24" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J24" t="n">
-        <v>54.5904919813227</v>
+        <v>54.59049198132269</v>
       </c>
       <c r="K24" t="n">
         <v>222.6109231448677</v>
       </c>
       <c r="L24" t="n">
-        <v>509.9395241401433</v>
+        <v>509.9395241401432</v>
       </c>
       <c r="M24" t="n">
-        <v>885.7472084121415</v>
+        <v>870.5867664880504</v>
       </c>
       <c r="N24" t="n">
-        <v>1103.681287972447</v>
+        <v>870.5867664880504</v>
       </c>
       <c r="O24" t="n">
-        <v>1415.295140681809</v>
+        <v>1182.200619197412</v>
       </c>
       <c r="P24" t="n">
-        <v>1415.295140681809</v>
+        <v>1415.295140681808</v>
       </c>
       <c r="Q24" t="n">
         <v>1518.414885947467</v>
@@ -6099,19 +6099,19 @@
         <v>1518.414885947467</v>
       </c>
       <c r="U24" t="n">
-        <v>1290.209002330976</v>
+        <v>1518.414885947467</v>
       </c>
       <c r="V24" t="n">
-        <v>1055.056894099233</v>
+        <v>1497.592242358654</v>
       </c>
       <c r="W24" t="n">
-        <v>800.8195373710316</v>
+        <v>1243.354885630453</v>
       </c>
       <c r="X24" t="n">
-        <v>592.9680371654988</v>
+        <v>1035.50338542492</v>
       </c>
       <c r="Y24" t="n">
-        <v>385.2077384005449</v>
+        <v>827.7430866599661</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="C25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="D25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="E25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="F25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="G25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="H25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="I25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="J25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="K25" t="n">
-        <v>34.05557600444037</v>
+        <v>34.05557600444035</v>
       </c>
       <c r="L25" t="n">
-        <v>94.30045732734925</v>
+        <v>94.30045732734922</v>
       </c>
       <c r="M25" t="n">
-        <v>168.2093608212055</v>
+        <v>168.2093608212054</v>
       </c>
       <c r="N25" t="n">
         <v>245.7954922063527</v>
@@ -6163,34 +6163,34 @@
         <v>301.4425467053015</v>
       </c>
       <c r="P25" t="n">
-        <v>325.537532925997</v>
+        <v>325.5375329259969</v>
       </c>
       <c r="Q25" t="n">
-        <v>325.537532925997</v>
+        <v>325.5375329259969</v>
       </c>
       <c r="R25" t="n">
-        <v>325.537532925997</v>
+        <v>325.5375329259969</v>
       </c>
       <c r="S25" t="n">
-        <v>143.5251556789777</v>
+        <v>325.5375329259969</v>
       </c>
       <c r="T25" t="n">
-        <v>143.5251556789777</v>
+        <v>143.5251556789776</v>
       </c>
       <c r="U25" t="n">
-        <v>94.37421328610101</v>
+        <v>94.37421328610094</v>
       </c>
       <c r="V25" t="n">
-        <v>79.73759641806205</v>
+        <v>79.73759641806201</v>
       </c>
       <c r="W25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="X25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.36829771894935</v>
+        <v>30.36829771894934</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>809.3413442381793</v>
       </c>
       <c r="F26" t="n">
-        <v>550.0667365867901</v>
+        <v>550.0667365867897</v>
       </c>
       <c r="G26" t="n">
-        <v>282.7841375140852</v>
+        <v>282.7841375140847</v>
       </c>
       <c r="H26" t="n">
-        <v>96.75132484088252</v>
+        <v>96.75132484088249</v>
       </c>
       <c r="I26" t="n">
         <v>55.28417414772525</v>
@@ -6227,31 +6227,31 @@
         <v>234.0566381242102</v>
       </c>
       <c r="K26" t="n">
-        <v>548.5761394593223</v>
+        <v>548.5761394593219</v>
       </c>
       <c r="L26" t="n">
-        <v>955.2683875778408</v>
+        <v>955.2683875778403</v>
       </c>
       <c r="M26" t="n">
-        <v>1407.641893100181</v>
+        <v>1407.64189310018</v>
       </c>
       <c r="N26" t="n">
-        <v>1850.297281404224</v>
+        <v>1850.297281404223</v>
       </c>
       <c r="O26" t="n">
-        <v>2231.382948833178</v>
+        <v>2231.382948833177</v>
       </c>
       <c r="P26" t="n">
-        <v>2540.74321996498</v>
+        <v>2540.743219964979</v>
       </c>
       <c r="Q26" t="n">
-        <v>2732.868700977584</v>
+        <v>2732.868700977583</v>
       </c>
       <c r="R26" t="n">
-        <v>2764.208707386262</v>
+        <v>2764.208707386263</v>
       </c>
       <c r="S26" t="n">
-        <v>2716.269384052305</v>
+        <v>2716.269384052306</v>
       </c>
       <c r="T26" t="n">
         <v>2644.836803464957</v>
@@ -6306,22 +6306,22 @@
         <v>79.50636841009859</v>
       </c>
       <c r="K27" t="n">
-        <v>247.5267995736436</v>
+        <v>247.5267995736435</v>
       </c>
       <c r="L27" t="n">
-        <v>534.8554005689192</v>
+        <v>534.8554005689191</v>
       </c>
       <c r="M27" t="n">
-        <v>922.1335471561413</v>
+        <v>922.1335471561412</v>
       </c>
       <c r="N27" t="n">
-        <v>1335.368807288894</v>
+        <v>1335.368807288893</v>
       </c>
       <c r="O27" t="n">
         <v>1646.982659998255</v>
       </c>
       <c r="P27" t="n">
-        <v>1880.077181482652</v>
+        <v>1880.077181482651</v>
       </c>
       <c r="Q27" t="n">
         <v>1983.19692674831</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4048523565009</v>
+        <v>100.404852356501</v>
       </c>
       <c r="C28" t="n">
-        <v>83.17996656681217</v>
+        <v>83.17996656681224</v>
       </c>
       <c r="D28" t="n">
-        <v>83.17996656681217</v>
+        <v>83.17996656681224</v>
       </c>
       <c r="E28" t="n">
-        <v>83.17996656681217</v>
+        <v>83.17996656681224</v>
       </c>
       <c r="F28" t="n">
-        <v>83.17996656681217</v>
+        <v>83.17996656681224</v>
       </c>
       <c r="G28" t="n">
-        <v>65.42940137966571</v>
+        <v>65.42940137966575</v>
       </c>
       <c r="H28" t="n">
         <v>55.28417414772525</v>
       </c>
       <c r="I28" t="n">
-        <v>55.28417414772525</v>
+        <v>56.74150425569159</v>
       </c>
       <c r="J28" t="n">
-        <v>127.210757952133</v>
+        <v>56.74150425569159</v>
       </c>
       <c r="K28" t="n">
-        <v>130.898036237624</v>
+        <v>148.4745281752318</v>
       </c>
       <c r="L28" t="n">
-        <v>339.8351598857006</v>
+        <v>357.4116518233083</v>
       </c>
       <c r="M28" t="n">
-        <v>562.4363057047244</v>
+        <v>431.3205553171645</v>
       </c>
       <c r="N28" t="n">
-        <v>640.0224370898717</v>
+        <v>508.9066867023117</v>
       </c>
       <c r="O28" t="n">
-        <v>713.2459835264276</v>
+        <v>564.5537412012606</v>
       </c>
       <c r="P28" t="n">
-        <v>737.340969747123</v>
+        <v>737.3409697471236</v>
       </c>
       <c r="Q28" t="n">
-        <v>819.2802514286831</v>
+        <v>819.2802514286836</v>
       </c>
       <c r="R28" t="n">
-        <v>802.068899391577</v>
+        <v>802.0688993915776</v>
       </c>
       <c r="S28" t="n">
-        <v>731.439291746982</v>
+        <v>731.4392917469825</v>
       </c>
       <c r="T28" t="n">
-        <v>653.8681363725507</v>
+        <v>653.8681363725511</v>
       </c>
       <c r="U28" t="n">
-        <v>516.3806197800443</v>
+        <v>516.3806197800446</v>
       </c>
       <c r="V28" t="n">
-        <v>413.4074287123757</v>
+        <v>413.4074287123759</v>
       </c>
       <c r="W28" t="n">
-        <v>275.7015558136333</v>
+        <v>275.7015558136335</v>
       </c>
       <c r="X28" t="n">
-        <v>199.4233020538342</v>
+        <v>199.4233020538343</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.3420200485223</v>
+        <v>130.3420200485224</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1467.223920968931</v>
       </c>
       <c r="C29" t="n">
-        <v>1249.972701166738</v>
+        <v>1249.972701166737</v>
       </c>
       <c r="D29" t="n">
         <v>1043.418299698205</v>
       </c>
       <c r="E29" t="n">
-        <v>809.3413442381792</v>
+        <v>809.3413442381787</v>
       </c>
       <c r="F29" t="n">
-        <v>550.0667365867898</v>
+        <v>550.0667365867894</v>
       </c>
       <c r="G29" t="n">
-        <v>282.7841375140848</v>
+        <v>282.7841375140843</v>
       </c>
       <c r="H29" t="n">
-        <v>96.75132484088252</v>
+        <v>96.75132484088265</v>
       </c>
       <c r="I29" t="n">
-        <v>55.28417414772527</v>
+        <v>55.28417414772526</v>
       </c>
       <c r="J29" t="n">
-        <v>234.0566381242103</v>
+        <v>234.0566381242102</v>
       </c>
       <c r="K29" t="n">
-        <v>548.5761394593223</v>
+        <v>548.5761394593222</v>
       </c>
       <c r="L29" t="n">
-        <v>955.2683875778409</v>
+        <v>955.2683875778405</v>
       </c>
       <c r="M29" t="n">
-        <v>1407.641893100181</v>
+        <v>1407.64189310018</v>
       </c>
       <c r="N29" t="n">
         <v>1850.297281404224</v>
@@ -6485,7 +6485,7 @@
         <v>2732.868700977584</v>
       </c>
       <c r="R29" t="n">
-        <v>2764.208707386264</v>
+        <v>2764.208707386263</v>
       </c>
       <c r="S29" t="n">
         <v>2716.269384052306</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>684.4436260686741</v>
+        <v>684.443626068674</v>
       </c>
       <c r="C30" t="n">
-        <v>509.9905967875471</v>
+        <v>509.990596787547</v>
       </c>
       <c r="D30" t="n">
         <v>361.0561871262958</v>
@@ -6528,37 +6528,37 @@
         <v>201.8187321208403</v>
       </c>
       <c r="F30" t="n">
-        <v>55.28417414772527</v>
+        <v>55.28417414772526</v>
       </c>
       <c r="G30" t="n">
-        <v>55.28417414772527</v>
+        <v>55.28417414772526</v>
       </c>
       <c r="H30" t="n">
-        <v>55.28417414772527</v>
+        <v>55.28417414772526</v>
       </c>
       <c r="I30" t="n">
-        <v>55.28417414772527</v>
+        <v>55.28417414772526</v>
       </c>
       <c r="J30" t="n">
-        <v>79.50636841009863</v>
+        <v>79.5063684100986</v>
       </c>
       <c r="K30" t="n">
-        <v>247.5267995736436</v>
+        <v>247.5267995736435</v>
       </c>
       <c r="L30" t="n">
-        <v>534.8554005689193</v>
+        <v>534.8554005689191</v>
       </c>
       <c r="M30" t="n">
-        <v>922.1335471561414</v>
+        <v>922.1335471561412</v>
       </c>
       <c r="N30" t="n">
-        <v>1335.368807288894</v>
+        <v>1335.368807288893</v>
       </c>
       <c r="O30" t="n">
         <v>1646.982659998255</v>
       </c>
       <c r="P30" t="n">
-        <v>1880.077181482652</v>
+        <v>1880.077181482651</v>
       </c>
       <c r="Q30" t="n">
         <v>1983.19692674831</v>
@@ -6567,25 +6567,25 @@
         <v>1983.19692674831</v>
       </c>
       <c r="S30" t="n">
-        <v>1814.786664235692</v>
+        <v>1966.49796137391</v>
       </c>
       <c r="T30" t="n">
-        <v>1765.397909446192</v>
+        <v>1917.10920658441</v>
       </c>
       <c r="U30" t="n">
-        <v>1605.948929880955</v>
+        <v>1757.660227019173</v>
       </c>
       <c r="V30" t="n">
-        <v>1370.796821649212</v>
+        <v>1522.50811878743</v>
       </c>
       <c r="W30" t="n">
-        <v>1116.559464921011</v>
+        <v>1268.270762059229</v>
       </c>
       <c r="X30" t="n">
         <v>1060.419261853696</v>
       </c>
       <c r="Y30" t="n">
-        <v>852.6589630887422</v>
+        <v>852.658963088742</v>
       </c>
     </row>
     <row r="31">
@@ -6598,73 +6598,73 @@
         <v>100.4048523565011</v>
       </c>
       <c r="C31" t="n">
-        <v>83.17996656681231</v>
+        <v>83.17996656681235</v>
       </c>
       <c r="D31" t="n">
-        <v>83.17996656681231</v>
+        <v>83.17996656681235</v>
       </c>
       <c r="E31" t="n">
-        <v>83.17996656681231</v>
+        <v>83.17996656681235</v>
       </c>
       <c r="F31" t="n">
-        <v>83.17996656681231</v>
+        <v>83.17996656681235</v>
       </c>
       <c r="G31" t="n">
-        <v>65.42940137966579</v>
+        <v>65.4294013796658</v>
       </c>
       <c r="H31" t="n">
-        <v>55.28417414772527</v>
+        <v>55.28417414772526</v>
       </c>
       <c r="I31" t="n">
-        <v>55.28417414772527</v>
+        <v>55.28417414772526</v>
       </c>
       <c r="J31" t="n">
-        <v>78.03428924613337</v>
+        <v>127.210757952133</v>
       </c>
       <c r="K31" t="n">
-        <v>230.413809856792</v>
+        <v>279.5902785627916</v>
       </c>
       <c r="L31" t="n">
-        <v>290.6586911797009</v>
+        <v>339.8351598857004</v>
       </c>
       <c r="M31" t="n">
-        <v>364.5675946735571</v>
+        <v>562.4363057047242</v>
       </c>
       <c r="N31" t="n">
-        <v>442.1537260587044</v>
+        <v>739.53821070904</v>
       </c>
       <c r="O31" t="n">
-        <v>646.4930228828208</v>
+        <v>795.1852652079888</v>
       </c>
       <c r="P31" t="n">
-        <v>819.2802514286839</v>
+        <v>819.2802514286842</v>
       </c>
       <c r="Q31" t="n">
-        <v>819.2802514286839</v>
+        <v>819.2802514286842</v>
       </c>
       <c r="R31" t="n">
-        <v>802.0688993915778</v>
+        <v>802.0688993915782</v>
       </c>
       <c r="S31" t="n">
-        <v>731.4392917469827</v>
+        <v>731.439291746983</v>
       </c>
       <c r="T31" t="n">
-        <v>653.8681363725514</v>
+        <v>653.8681363725516</v>
       </c>
       <c r="U31" t="n">
-        <v>516.3806197800449</v>
+        <v>516.3806197800451</v>
       </c>
       <c r="V31" t="n">
-        <v>413.4074287123761</v>
+        <v>413.4074287123763</v>
       </c>
       <c r="W31" t="n">
-        <v>275.7015558136337</v>
+        <v>275.7015558136338</v>
       </c>
       <c r="X31" t="n">
-        <v>199.4233020538345</v>
+        <v>199.4233020538346</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.3420200485226</v>
+        <v>130.3420200485227</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>1238.640977784398</v>
       </c>
       <c r="D32" t="n">
-        <v>1033.8835162697</v>
+        <v>1033.883516269699</v>
       </c>
       <c r="E32" t="n">
-        <v>801.6035007635076</v>
+        <v>801.6035007635073</v>
       </c>
       <c r="F32" t="n">
-        <v>544.1258330659521</v>
+        <v>544.1258330659518</v>
       </c>
       <c r="G32" t="n">
         <v>278.64017394708</v>
       </c>
       <c r="H32" t="n">
-        <v>94.40430122771178</v>
+        <v>94.40430122771177</v>
       </c>
       <c r="I32" t="n">
         <v>54.73409048838835</v>
@@ -6701,10 +6701,10 @@
         <v>235.2677353136259</v>
       </c>
       <c r="K32" t="n">
-        <v>551.5484174974906</v>
+        <v>551.5484174974905</v>
       </c>
       <c r="L32" t="n">
-        <v>960.0018464647617</v>
+        <v>960.0018464647615</v>
       </c>
       <c r="M32" t="n">
         <v>1414.136532835854</v>
@@ -6722,25 +6722,25 @@
         <v>2703.603337161986</v>
       </c>
       <c r="R32" t="n">
-        <v>2736.704524419418</v>
+        <v>2736.704524419417</v>
       </c>
       <c r="S32" t="n">
-        <v>2690.562141039295</v>
+        <v>2690.562141039294</v>
       </c>
       <c r="T32" t="n">
-        <v>2620.926500405781</v>
+        <v>2620.92650040578</v>
       </c>
       <c r="U32" t="n">
         <v>2520.590545087195</v>
       </c>
       <c r="V32" t="n">
-        <v>2343.035894835676</v>
+        <v>2343.035894835677</v>
       </c>
       <c r="W32" t="n">
         <v>2143.775476657614</v>
       </c>
       <c r="X32" t="n">
-        <v>1923.817955488586</v>
+        <v>1923.817955488587</v>
       </c>
       <c r="Y32" t="n">
         <v>1687.186860604827</v>
@@ -6777,31 +6777,31 @@
         <v>54.73409048838835</v>
       </c>
       <c r="J33" t="n">
-        <v>78.95628475076171</v>
+        <v>78.95628475076168</v>
       </c>
       <c r="K33" t="n">
-        <v>246.9767159143067</v>
+        <v>246.9767159143066</v>
       </c>
       <c r="L33" t="n">
-        <v>534.3053169095824</v>
+        <v>534.3053169095822</v>
       </c>
       <c r="M33" t="n">
-        <v>921.5834634968045</v>
+        <v>921.5834634968043</v>
       </c>
       <c r="N33" t="n">
-        <v>1334.818723629557</v>
+        <v>1334.818723629556</v>
       </c>
       <c r="O33" t="n">
         <v>1646.432576338918</v>
       </c>
       <c r="P33" t="n">
-        <v>1879.527097823315</v>
+        <v>1879.527097823314</v>
       </c>
       <c r="Q33" t="n">
-        <v>1982.646843088974</v>
+        <v>1982.646843088973</v>
       </c>
       <c r="R33" t="n">
-        <v>1982.646843088974</v>
+        <v>1982.646843088973</v>
       </c>
       <c r="S33" t="n">
         <v>1967.744817668407</v>
@@ -6856,22 +6856,22 @@
         <v>54.73409048838835</v>
       </c>
       <c r="J34" t="n">
-        <v>128.4218551415487</v>
+        <v>54.73409048838835</v>
       </c>
       <c r="K34" t="n">
-        <v>132.1091334270397</v>
+        <v>58.42136877387936</v>
       </c>
       <c r="L34" t="n">
-        <v>192.3540147499486</v>
+        <v>269.1196732707085</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2629182438048</v>
+        <v>405.6848305143158</v>
       </c>
       <c r="N34" t="n">
-        <v>494.3024728028723</v>
+        <v>483.270961899463</v>
       </c>
       <c r="O34" t="n">
-        <v>549.949527301821</v>
+        <v>689.3714395723321</v>
       </c>
       <c r="P34" t="n">
         <v>713.4664257930275</v>
@@ -6914,70 +6914,70 @@
         <v>1090.615305139386</v>
       </c>
       <c r="C35" t="n">
-        <v>926.5644935380265</v>
+        <v>926.5644935380262</v>
       </c>
       <c r="D35" t="n">
-        <v>773.2105002703279</v>
+        <v>773.2105002703277</v>
       </c>
       <c r="E35" t="n">
-        <v>592.3339530111355</v>
+        <v>592.3339530111353</v>
       </c>
       <c r="F35" t="n">
-        <v>386.2597535605798</v>
+        <v>386.2597535605797</v>
       </c>
       <c r="G35" t="n">
         <v>172.177562688707</v>
       </c>
       <c r="H35" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="I35" t="n">
-        <v>50.84492389961214</v>
+        <v>50.84492389961213</v>
       </c>
       <c r="J35" t="n">
-        <v>281.7591079537343</v>
+        <v>80.92514555092941</v>
       </c>
       <c r="K35" t="n">
-        <v>447.5863669636788</v>
+        <v>385.6467250825208</v>
       </c>
       <c r="L35" t="n">
-        <v>705.5863727570295</v>
+        <v>643.6467308758715</v>
       </c>
       <c r="M35" t="n">
-        <v>1009.267635954202</v>
+        <v>947.3279940730438</v>
       </c>
       <c r="N35" t="n">
-        <v>1303.230781933077</v>
+        <v>1241.291140051919</v>
       </c>
       <c r="O35" t="n">
-        <v>1535.624207036863</v>
+        <v>1473.684565155705</v>
       </c>
       <c r="P35" t="n">
-        <v>1696.292235843498</v>
+        <v>1634.35259396234</v>
       </c>
       <c r="Q35" t="n">
         <v>1878.619795052581</v>
       </c>
       <c r="R35" t="n">
-        <v>1962.101521538898</v>
+        <v>1962.101521538897</v>
       </c>
       <c r="S35" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="T35" t="n">
-        <v>1949.02573843041</v>
+        <v>1949.025738430409</v>
       </c>
       <c r="U35" t="n">
-        <v>1900.093251358824</v>
+        <v>1900.093251358825</v>
       </c>
       <c r="V35" t="n">
         <v>1773.942069354306</v>
       </c>
       <c r="W35" t="n">
-        <v>1626.085119423243</v>
+        <v>1626.085119423244</v>
       </c>
       <c r="X35" t="n">
-        <v>1457.531066501215</v>
+        <v>1457.531066501216</v>
       </c>
       <c r="Y35" t="n">
         <v>1272.303439864456</v>
@@ -7002,28 +7002,28 @@
         <v>185.8797161894535</v>
       </c>
       <c r="F36" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="G36" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="H36" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="I36" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="J36" t="n">
-        <v>63.56735247871183</v>
+        <v>63.56735247871181</v>
       </c>
       <c r="K36" t="n">
-        <v>231.587783642257</v>
+        <v>231.5877836422567</v>
       </c>
       <c r="L36" t="n">
-        <v>518.9163846375327</v>
+        <v>518.9163846375324</v>
       </c>
       <c r="M36" t="n">
-        <v>906.1945312247548</v>
+        <v>906.1945312247544</v>
       </c>
       <c r="N36" t="n">
         <v>1319.429791357507</v>
@@ -7035,16 +7035,16 @@
         <v>1864.138165551265</v>
       </c>
       <c r="Q36" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="R36" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="S36" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="T36" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="U36" t="n">
         <v>1741.721211087786</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="C37" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="D37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="E37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="F37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="G37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="H37" t="n">
-        <v>43.49994494650991</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="I37" t="n">
-        <v>43.49994494650991</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="J37" t="n">
-        <v>43.49994494650991</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="K37" t="n">
-        <v>47.18722323200093</v>
+        <v>47.18722323200095</v>
       </c>
       <c r="L37" t="n">
         <v>107.4321045549098</v>
@@ -7105,10 +7105,10 @@
         <v>181.341008048766</v>
       </c>
       <c r="N37" t="n">
-        <v>258.9271394339133</v>
+        <v>258.9271394339132</v>
       </c>
       <c r="O37" t="n">
-        <v>314.5741939328621</v>
+        <v>314.574193932862</v>
       </c>
       <c r="P37" t="n">
         <v>338.6691801535575</v>
@@ -7120,25 +7120,25 @@
         <v>338.6691801535575</v>
       </c>
       <c r="S37" t="n">
-        <v>321.2399807097962</v>
+        <v>321.2399807097961</v>
       </c>
       <c r="T37" t="n">
         <v>296.8692335361985</v>
       </c>
       <c r="U37" t="n">
-        <v>212.5821251445258</v>
+        <v>212.5821251445257</v>
       </c>
       <c r="V37" t="n">
         <v>162.8093422776908</v>
       </c>
       <c r="W37" t="n">
-        <v>78.30387757978208</v>
+        <v>78.30387757978207</v>
       </c>
       <c r="X37" t="n">
-        <v>55.22603202081666</v>
+        <v>55.22603202081665</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1090.615305139386</v>
+        <v>1090.615305139384</v>
       </c>
       <c r="C38" t="n">
-        <v>926.564493538026</v>
+        <v>926.5644935380247</v>
       </c>
       <c r="D38" t="n">
-        <v>773.2105002703274</v>
+        <v>773.2105002703262</v>
       </c>
       <c r="E38" t="n">
-        <v>592.333953011135</v>
+        <v>592.3339530111339</v>
       </c>
       <c r="F38" t="n">
-        <v>386.2597535605796</v>
+        <v>386.2597535605782</v>
       </c>
       <c r="G38" t="n">
         <v>172.177562688707</v>
       </c>
       <c r="H38" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="I38" t="n">
-        <v>50.84492389961214</v>
+        <v>50.84492389961213</v>
       </c>
       <c r="J38" t="n">
-        <v>281.7591079537343</v>
+        <v>281.7591079537342</v>
       </c>
       <c r="K38" t="n">
-        <v>447.5863669636788</v>
+        <v>447.5863669636786</v>
       </c>
       <c r="L38" t="n">
-        <v>705.5863727570295</v>
+        <v>705.5863727570294</v>
       </c>
       <c r="M38" t="n">
         <v>1009.267635954202</v>
       </c>
       <c r="N38" t="n">
-        <v>1442.125102454724</v>
+        <v>1303.230781933077</v>
       </c>
       <c r="O38" t="n">
-        <v>1674.51852755851</v>
+        <v>1535.624207036863</v>
       </c>
       <c r="P38" t="n">
-        <v>1835.186556365145</v>
+        <v>1696.292235843498</v>
       </c>
       <c r="Q38" t="n">
-        <v>1878.619795052581</v>
+        <v>1878.61979505258</v>
       </c>
       <c r="R38" t="n">
-        <v>1962.101521538898</v>
+        <v>1962.101521538897</v>
       </c>
       <c r="S38" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="T38" t="n">
-        <v>1949.02573843041</v>
+        <v>1949.025738430408</v>
       </c>
       <c r="U38" t="n">
-        <v>1900.093251358824</v>
+        <v>1900.093251358823</v>
       </c>
       <c r="V38" t="n">
-        <v>1773.942069354306</v>
+        <v>1773.942069354304</v>
       </c>
       <c r="W38" t="n">
-        <v>1626.085119423243</v>
+        <v>1626.085119423242</v>
       </c>
       <c r="X38" t="n">
-        <v>1457.531066501215</v>
+        <v>1457.531066501214</v>
       </c>
       <c r="Y38" t="n">
-        <v>1272.303439864456</v>
+        <v>1272.303439864454</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>521.9700521641722</v>
+        <v>668.5046101372873</v>
       </c>
       <c r="C39" t="n">
-        <v>347.5170228830452</v>
+        <v>494.0515808561603</v>
       </c>
       <c r="D39" t="n">
-        <v>198.582613221794</v>
+        <v>345.117171194909</v>
       </c>
       <c r="E39" t="n">
-        <v>39.34515821633848</v>
+        <v>185.8797161894535</v>
       </c>
       <c r="F39" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="G39" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="H39" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="I39" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="J39" t="n">
-        <v>63.56735247871165</v>
+        <v>63.56735247871181</v>
       </c>
       <c r="K39" t="n">
         <v>231.5877836422567</v>
       </c>
       <c r="L39" t="n">
-        <v>518.9163846375325</v>
+        <v>518.9163846375324</v>
       </c>
       <c r="M39" t="n">
-        <v>906.1945312247545</v>
+        <v>906.1945312247544</v>
       </c>
       <c r="N39" t="n">
         <v>1319.429791357507</v>
@@ -7272,31 +7272,31 @@
         <v>1864.138165551265</v>
       </c>
       <c r="Q39" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="R39" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="S39" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="T39" t="n">
-        <v>1823.392536731163</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="U39" t="n">
-        <v>1595.186653114671</v>
+        <v>1741.721211087786</v>
       </c>
       <c r="V39" t="n">
-        <v>1360.034544882928</v>
+        <v>1506.569102856044</v>
       </c>
       <c r="W39" t="n">
-        <v>1105.797188154727</v>
+        <v>1252.331746127842</v>
       </c>
       <c r="X39" t="n">
-        <v>897.9456879491941</v>
+        <v>1044.480245922309</v>
       </c>
       <c r="Y39" t="n">
-        <v>690.1853891842402</v>
+        <v>836.7199471573554</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="C40" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="D40" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="E40" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="F40" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="G40" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="H40" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="I40" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="J40" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="K40" t="n">
-        <v>43.03243650182949</v>
+        <v>43.03243650182948</v>
       </c>
       <c r="L40" t="n">
-        <v>103.2773178247384</v>
+        <v>103.2773178247383</v>
       </c>
       <c r="M40" t="n">
-        <v>177.1862213185946</v>
+        <v>177.1862213185945</v>
       </c>
       <c r="N40" t="n">
-        <v>254.7723527037418</v>
+        <v>254.7723527037417</v>
       </c>
       <c r="O40" t="n">
-        <v>310.4194072026906</v>
+        <v>310.4194072026905</v>
       </c>
       <c r="P40" t="n">
-        <v>334.5143934233861</v>
+        <v>334.514393423386</v>
       </c>
       <c r="Q40" t="n">
-        <v>334.5143934233861</v>
+        <v>334.514393423386</v>
       </c>
       <c r="R40" t="n">
         <v>338.6691801535575</v>
       </c>
       <c r="S40" t="n">
-        <v>321.2399807097962</v>
+        <v>321.2399807097961</v>
       </c>
       <c r="T40" t="n">
         <v>296.8692335361985</v>
       </c>
       <c r="U40" t="n">
-        <v>212.5821251445258</v>
+        <v>212.5821251445257</v>
       </c>
       <c r="V40" t="n">
         <v>162.8093422776908</v>
       </c>
       <c r="W40" t="n">
-        <v>78.30387757978208</v>
+        <v>78.30387757978207</v>
       </c>
       <c r="X40" t="n">
-        <v>55.22603202081666</v>
+        <v>55.22603202081665</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1090.615305139386</v>
+        <v>1090.615305139384</v>
       </c>
       <c r="C41" t="n">
-        <v>926.564493538026</v>
+        <v>926.5644935380245</v>
       </c>
       <c r="D41" t="n">
-        <v>773.2105002703273</v>
+        <v>773.2105002703261</v>
       </c>
       <c r="E41" t="n">
-        <v>592.3339530111349</v>
+        <v>592.3339530111339</v>
       </c>
       <c r="F41" t="n">
-        <v>386.2597535605792</v>
+        <v>386.2597535605782</v>
       </c>
       <c r="G41" t="n">
         <v>172.177562688707</v>
       </c>
       <c r="H41" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="I41" t="n">
-        <v>50.84492389961208</v>
+        <v>50.84492389961213</v>
       </c>
       <c r="J41" t="n">
-        <v>281.7591079537341</v>
+        <v>80.92514555092941</v>
       </c>
       <c r="K41" t="n">
-        <v>591.6370767633514</v>
+        <v>246.7524045608739</v>
       </c>
       <c r="L41" t="n">
-        <v>849.6370825567021</v>
+        <v>504.7524103542246</v>
       </c>
       <c r="M41" t="n">
-        <v>1153.318345753874</v>
+        <v>808.4336735513969</v>
       </c>
       <c r="N41" t="n">
-        <v>1447.28149173275</v>
+        <v>1241.291140051919</v>
       </c>
       <c r="O41" t="n">
-        <v>1679.674916836536</v>
+        <v>1674.51852755851</v>
       </c>
       <c r="P41" t="n">
-        <v>1840.342945643171</v>
+        <v>1835.186556365145</v>
       </c>
       <c r="Q41" t="n">
-        <v>1883.776184330607</v>
+        <v>1878.619795052581</v>
       </c>
       <c r="R41" t="n">
-        <v>1967.257910816924</v>
+        <v>1962.101521538897</v>
       </c>
       <c r="S41" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="T41" t="n">
-        <v>1949.02573843041</v>
+        <v>1949.025738430408</v>
       </c>
       <c r="U41" t="n">
-        <v>1900.093251358825</v>
+        <v>1900.093251358823</v>
       </c>
       <c r="V41" t="n">
-        <v>1773.942069354306</v>
+        <v>1773.942069354305</v>
       </c>
       <c r="W41" t="n">
-        <v>1626.085119423243</v>
+        <v>1626.085119423242</v>
       </c>
       <c r="X41" t="n">
-        <v>1457.531066501215</v>
+        <v>1457.531066501214</v>
       </c>
       <c r="Y41" t="n">
-        <v>1272.303439864456</v>
+        <v>1272.303439864454</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>806.9658689184567</v>
+        <v>521.9700521641722</v>
       </c>
       <c r="C42" t="n">
-        <v>632.5128396373298</v>
+        <v>347.5170228830452</v>
       </c>
       <c r="D42" t="n">
-        <v>483.5784299760786</v>
+        <v>198.582613221794</v>
       </c>
       <c r="E42" t="n">
-        <v>324.3409749706231</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="F42" t="n">
-        <v>177.806416997508</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="G42" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="H42" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="I42" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="J42" t="n">
-        <v>63.56735247871205</v>
+        <v>63.56735247871191</v>
       </c>
       <c r="K42" t="n">
-        <v>231.587783642257</v>
+        <v>231.5877836422569</v>
       </c>
       <c r="L42" t="n">
-        <v>518.9163846375327</v>
+        <v>518.9163846375325</v>
       </c>
       <c r="M42" t="n">
-        <v>906.1945312247548</v>
+        <v>906.1945312247545</v>
       </c>
       <c r="N42" t="n">
         <v>1319.429791357507</v>
@@ -7509,31 +7509,31 @@
         <v>1864.138165551265</v>
       </c>
       <c r="Q42" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="R42" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="S42" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="T42" t="n">
-        <v>1967.257910816924</v>
+        <v>1823.392536731163</v>
       </c>
       <c r="U42" t="n">
-        <v>1880.182469868956</v>
+        <v>1595.186653114671</v>
       </c>
       <c r="V42" t="n">
-        <v>1645.030361637213</v>
+        <v>1360.034544882928</v>
       </c>
       <c r="W42" t="n">
-        <v>1390.793004909011</v>
+        <v>1105.797188154727</v>
       </c>
       <c r="X42" t="n">
-        <v>1182.941504703479</v>
+        <v>897.9456879491941</v>
       </c>
       <c r="Y42" t="n">
-        <v>975.1812059385247</v>
+        <v>690.1853891842402</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="C43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="D43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="E43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="F43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="G43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="H43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="I43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="J43" t="n">
-        <v>39.34515821633848</v>
+        <v>43.49994494650994</v>
       </c>
       <c r="K43" t="n">
-        <v>43.03243650182949</v>
+        <v>47.18722323200095</v>
       </c>
       <c r="L43" t="n">
-        <v>103.2773178247384</v>
+        <v>107.4321045549098</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1862213185946</v>
+        <v>181.341008048766</v>
       </c>
       <c r="N43" t="n">
-        <v>254.7723527037418</v>
+        <v>258.9271394339132</v>
       </c>
       <c r="O43" t="n">
-        <v>310.4194072026906</v>
+        <v>314.574193932862</v>
       </c>
       <c r="P43" t="n">
-        <v>338.6691801535579</v>
+        <v>338.6691801535575</v>
       </c>
       <c r="Q43" t="n">
-        <v>338.6691801535579</v>
+        <v>338.6691801535575</v>
       </c>
       <c r="R43" t="n">
-        <v>338.6691801535579</v>
+        <v>338.6691801535575</v>
       </c>
       <c r="S43" t="n">
-        <v>321.2399807097964</v>
+        <v>321.2399807097961</v>
       </c>
       <c r="T43" t="n">
-        <v>296.8692335361987</v>
+        <v>296.8692335361985</v>
       </c>
       <c r="U43" t="n">
-        <v>212.582125144526</v>
+        <v>212.5821251445257</v>
       </c>
       <c r="V43" t="n">
-        <v>162.809342277691</v>
+        <v>162.8093422776908</v>
       </c>
       <c r="W43" t="n">
-        <v>78.3038775797822</v>
+        <v>78.30387757978207</v>
       </c>
       <c r="X43" t="n">
-        <v>55.22603202081672</v>
+        <v>55.22603202081665</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1090.615305139386</v>
+        <v>1090.615305139385</v>
       </c>
       <c r="C44" t="n">
-        <v>926.564493538026</v>
+        <v>926.5644935380251</v>
       </c>
       <c r="D44" t="n">
-        <v>773.2105002703274</v>
+        <v>773.2105002703265</v>
       </c>
       <c r="E44" t="n">
-        <v>592.3339530111351</v>
+        <v>592.333953011134</v>
       </c>
       <c r="F44" t="n">
-        <v>386.2597535605795</v>
+        <v>386.2597535605782</v>
       </c>
       <c r="G44" t="n">
         <v>172.177562688707</v>
       </c>
       <c r="H44" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="I44" t="n">
-        <v>50.84492389961214</v>
+        <v>50.84492389961207</v>
       </c>
       <c r="J44" t="n">
-        <v>80.92514555092944</v>
+        <v>80.92514555092936</v>
       </c>
       <c r="K44" t="n">
-        <v>246.7524045608739</v>
+        <v>246.7524045608738</v>
       </c>
       <c r="L44" t="n">
-        <v>504.7524103542247</v>
+        <v>504.7524103542245</v>
       </c>
       <c r="M44" t="n">
-        <v>808.433673551397</v>
+        <v>808.4336735513969</v>
       </c>
       <c r="N44" t="n">
         <v>1102.396819530272</v>
       </c>
       <c r="O44" t="n">
-        <v>1334.790244634058</v>
+        <v>1473.684565155705</v>
       </c>
       <c r="P44" t="n">
         <v>1634.35259396234</v>
@@ -7670,19 +7670,19 @@
         <v>1878.619795052581</v>
       </c>
       <c r="R44" t="n">
-        <v>1962.101521538898</v>
+        <v>1962.101521538897</v>
       </c>
       <c r="S44" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="T44" t="n">
-        <v>1949.02573843041</v>
+        <v>1949.025738430409</v>
       </c>
       <c r="U44" t="n">
         <v>1900.093251358824</v>
       </c>
       <c r="V44" t="n">
-        <v>1773.942069354306</v>
+        <v>1773.942069354305</v>
       </c>
       <c r="W44" t="n">
         <v>1626.085119423243</v>
@@ -7691,7 +7691,7 @@
         <v>1457.531066501215</v>
       </c>
       <c r="Y44" t="n">
-        <v>1272.303439864456</v>
+        <v>1272.303439864455</v>
       </c>
     </row>
     <row r="45">
@@ -7713,31 +7713,31 @@
         <v>185.8797161894535</v>
       </c>
       <c r="F45" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="G45" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="H45" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="I45" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="J45" t="n">
-        <v>63.56735247871188</v>
+        <v>63.56735247871165</v>
       </c>
       <c r="K45" t="n">
-        <v>231.5877836422569</v>
+        <v>231.5877836422567</v>
       </c>
       <c r="L45" t="n">
-        <v>518.9163846375325</v>
+        <v>518.9163846375324</v>
       </c>
       <c r="M45" t="n">
-        <v>906.1945312247545</v>
+        <v>906.1945312247544</v>
       </c>
       <c r="N45" t="n">
-        <v>1319.429791357507</v>
+        <v>1319.429791357506</v>
       </c>
       <c r="O45" t="n">
         <v>1631.043644066868</v>
@@ -7746,16 +7746,16 @@
         <v>1864.138165551265</v>
       </c>
       <c r="Q45" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="R45" t="n">
-        <v>1967.257910816924</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="S45" t="n">
-        <v>1798.847648304305</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="T45" t="n">
-        <v>1798.847648304305</v>
+        <v>1967.257910816923</v>
       </c>
       <c r="U45" t="n">
         <v>1741.721211087786</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="C46" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
       <c r="D46" t="n">
-        <v>39.34515821633848</v>
+        <v>43.4999449465104</v>
       </c>
       <c r="E46" t="n">
-        <v>39.34515821633848</v>
+        <v>43.4999449465104</v>
       </c>
       <c r="F46" t="n">
-        <v>39.34515821633848</v>
+        <v>43.4999449465104</v>
       </c>
       <c r="G46" t="n">
-        <v>39.34515821633848</v>
+        <v>43.4999449465104</v>
       </c>
       <c r="H46" t="n">
-        <v>39.34515821633848</v>
+        <v>43.4999449465104</v>
       </c>
       <c r="I46" t="n">
-        <v>39.34515821633848</v>
+        <v>43.4999449465104</v>
       </c>
       <c r="J46" t="n">
-        <v>39.34515821633848</v>
+        <v>43.4999449465104</v>
       </c>
       <c r="K46" t="n">
-        <v>43.03243650182949</v>
+        <v>47.18722323200141</v>
       </c>
       <c r="L46" t="n">
-        <v>103.2773178247384</v>
+        <v>107.4321045549103</v>
       </c>
       <c r="M46" t="n">
-        <v>177.1862213185946</v>
+        <v>181.3410080487664</v>
       </c>
       <c r="N46" t="n">
-        <v>254.7723527037418</v>
+        <v>258.9271394339137</v>
       </c>
       <c r="O46" t="n">
-        <v>310.4194072026906</v>
+        <v>314.5741939328624</v>
       </c>
       <c r="P46" t="n">
-        <v>334.5143934233861</v>
+        <v>338.6691801535579</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.5143934233861</v>
+        <v>338.6691801535579</v>
       </c>
       <c r="R46" t="n">
-        <v>338.6691801535575</v>
+        <v>338.6691801535579</v>
       </c>
       <c r="S46" t="n">
-        <v>321.2399807097962</v>
+        <v>321.2399807097964</v>
       </c>
       <c r="T46" t="n">
-        <v>296.8692335361985</v>
+        <v>296.8692335361987</v>
       </c>
       <c r="U46" t="n">
-        <v>212.5821251445258</v>
+        <v>212.582125144526</v>
       </c>
       <c r="V46" t="n">
-        <v>162.8093422776908</v>
+        <v>162.8093422776909</v>
       </c>
       <c r="W46" t="n">
-        <v>78.30387757978208</v>
+        <v>78.30387757978218</v>
       </c>
       <c r="X46" t="n">
-        <v>55.22603202081666</v>
+        <v>55.22603202081671</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.34515821633848</v>
+        <v>39.34515821633847</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>242.3646406817305</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
         <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,13 +8535,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>145.1526054916175</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>149.0100796637298</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>137.9399377950766</v>
       </c>
       <c r="O9" t="n">
         <v>149.4722901861559</v>
@@ -8550,7 +8550,7 @@
         <v>140.8504531560417</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M10" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>74.51501669219981</v>
+        <v>438.8051604779644</v>
       </c>
       <c r="N12" t="n">
-        <v>426.2231644598716</v>
+        <v>61.93302067410694</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9009,7 +9009,7 @@
         <v>94.74762977667459</v>
       </c>
       <c r="L15" t="n">
-        <v>274.2688750968812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>454.1187381790666</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>221.8912984333593</v>
       </c>
       <c r="Q15" t="n">
         <v>105.9159288816483</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>74.51501669219981</v>
+        <v>438.8051604779646</v>
       </c>
       <c r="N18" t="n">
-        <v>426.2231644598718</v>
+        <v>61.93302067410694</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.6241724491226</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>454.1187381790667</v>
+        <v>454.1187381790666</v>
       </c>
       <c r="N21" t="n">
-        <v>361.3809103561982</v>
+        <v>410.6966763188926</v>
       </c>
       <c r="O21" t="n">
-        <v>79.10085189353626</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>83.01375703953644</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.9159288816483</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.1187381790667</v>
+        <v>438.8051604779646</v>
       </c>
       <c r="N24" t="n">
-        <v>282.0684545734057</v>
+        <v>61.93302067410693</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>83.01375703953643</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125788</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>479.3423743435537</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>479.3423743435537</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404091</v>
+        <v>126.0910353404089</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.2488867219979</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>223.1980866792003</v>
       </c>
       <c r="E11" t="n">
         <v>250.4454151307791</v>
@@ -23270,13 +23270,13 @@
         <v>275.3910908002288</v>
       </c>
       <c r="G11" t="n">
-        <v>283.3190023073313</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.76170841157906</v>
+        <v>59.76170841157909</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.42748400682808</v>
+        <v>89.42748400682811</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.2673035286523</v>
       </c>
       <c r="W11" t="n">
-        <v>24.96103284690409</v>
+        <v>156.5703696459657</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.2461457369864</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.7529837145709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7879368295249</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>223.1980866792003</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>80.23740206566177</v>
+        <v>59.27235518061525</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>202.8817137718235</v>
       </c>
       <c r="I14" t="n">
-        <v>59.76170841157906</v>
+        <v>59.76170841157904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.16915932597061</v>
+        <v>66.16915932597058</v>
       </c>
       <c r="T14" t="n">
-        <v>89.42748400682808</v>
+        <v>89.42748400682805</v>
       </c>
       <c r="U14" t="n">
         <v>119.8207955450481</v>
       </c>
       <c r="V14" t="n">
-        <v>196.2673035286522</v>
+        <v>196.2673035286521</v>
       </c>
       <c r="W14" t="n">
         <v>217.7560137759303</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.7529837145709</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170382</v>
+        <v>81927.63387170383</v>
       </c>
       <c r="C2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.6338717038</v>
       </c>
       <c r="D2" t="n">
-        <v>82037.10051991188</v>
+        <v>82037.10051991187</v>
       </c>
       <c r="E2" t="n">
-        <v>70249.28845906434</v>
+        <v>70249.28845906431</v>
       </c>
       <c r="F2" t="n">
-        <v>70249.28845906432</v>
+        <v>70249.28845906429</v>
       </c>
       <c r="G2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="H2" t="n">
         <v>82104.17698642827</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642827</v>
       </c>
       <c r="M2" t="n">
         <v>82104.1769864283</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642828</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>82104.1769864283</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642828</v>
       </c>
     </row>
     <row r="3">
@@ -26375,13 +26375,13 @@
         <v>316155.7365447367</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>84929.95014638941</v>
+        <v>84929.95014638934</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86353.12658982587</v>
+        <v>86353.12658982581</v>
       </c>
       <c r="M3" t="n">
-        <v>85659.48108397058</v>
+        <v>85659.48108397065</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35225.39718707938</v>
+        <v>35225.39718707935</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,16 +26430,16 @@
         <v>268171.3924041465</v>
       </c>
       <c r="G4" t="n">
+        <v>335598.4459397374</v>
+      </c>
+      <c r="H4" t="n">
         <v>335598.4459397375</v>
-      </c>
-      <c r="H4" t="n">
-        <v>335598.4459397374</v>
       </c>
       <c r="I4" t="n">
         <v>335598.4459397375</v>
       </c>
       <c r="J4" t="n">
-        <v>332148.1291316944</v>
+        <v>332148.1291316945</v>
       </c>
       <c r="K4" t="n">
         <v>332148.1291316944</v>
@@ -26448,16 +26448,16 @@
         <v>332113.5408538069</v>
       </c>
       <c r="M4" t="n">
-        <v>331195.8295834726</v>
+        <v>331195.8295834727</v>
       </c>
       <c r="N4" t="n">
         <v>331195.8295834726</v>
       </c>
       <c r="O4" t="n">
+        <v>331195.8295834727</v>
+      </c>
+      <c r="P4" t="n">
         <v>331195.8295834726</v>
-      </c>
-      <c r="P4" t="n">
-        <v>331195.8295834727</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>36838.47563256975</v>
+        <v>36838.47563256974</v>
       </c>
       <c r="F5" t="n">
         <v>36838.47563256975</v>
       </c>
       <c r="G5" t="n">
-        <v>45763.44560614077</v>
+        <v>45763.44560614075</v>
       </c>
       <c r="H5" t="n">
-        <v>45763.44560614077</v>
+        <v>45763.44560614076</v>
       </c>
       <c r="I5" t="n">
-        <v>45763.44560614077</v>
+        <v>45763.44560614076</v>
       </c>
       <c r="J5" t="n">
         <v>57347.40791018566</v>
       </c>
       <c r="K5" t="n">
-        <v>57347.40791018568</v>
+        <v>57347.40791018566</v>
       </c>
       <c r="L5" t="n">
-        <v>57078.9006046187</v>
+        <v>57078.90060461869</v>
       </c>
       <c r="M5" t="n">
         <v>49661.53586819724</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-361096.9944646827</v>
+        <v>-361101.4080425508</v>
       </c>
       <c r="C6" t="n">
-        <v>-361096.9944646827</v>
+        <v>-361101.4080425508</v>
       </c>
       <c r="D6" t="n">
-        <v>-363141.0969155907</v>
+        <v>-363142.7738272537</v>
       </c>
       <c r="E6" t="n">
-        <v>-550916.3161223886</v>
+        <v>-551212.6883355727</v>
       </c>
       <c r="F6" t="n">
-        <v>-234760.5795776519</v>
+        <v>-235056.9517908361</v>
       </c>
       <c r="G6" t="n">
-        <v>-384187.6647058394</v>
+        <v>-384187.6647058392</v>
       </c>
       <c r="H6" t="n">
-        <v>-299257.7145594499</v>
+        <v>-299257.71455945</v>
       </c>
       <c r="I6" t="n">
-        <v>-299257.7145594499</v>
+        <v>-299257.71455945</v>
       </c>
       <c r="J6" t="n">
-        <v>-424105.3768966642</v>
+        <v>-424105.3768966643</v>
       </c>
       <c r="K6" t="n">
         <v>-307391.3600554517</v>
       </c>
       <c r="L6" t="n">
-        <v>-393441.3910618232</v>
+        <v>-393441.3910618231</v>
       </c>
       <c r="M6" t="n">
-        <v>-384412.6695492121</v>
+        <v>-384412.6695492123</v>
       </c>
       <c r="N6" t="n">
-        <v>-298753.1884652416</v>
+        <v>-298753.1884652415</v>
       </c>
       <c r="O6" t="n">
-        <v>-333978.5856523209</v>
+        <v>-333978.585652321</v>
       </c>
       <c r="P6" t="n">
-        <v>-298753.1884652417</v>
+        <v>-298753.1884652415</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="F2" t="n">
         <v>131.4849549414827</v>
@@ -26701,10 +26701,10 @@
         <v>237.6473926244694</v>
       </c>
       <c r="H2" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="I2" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="J2" t="n">
         <v>150.194184166836</v>
@@ -26722,10 +26722,10 @@
         <v>202.8625882856614</v>
       </c>
       <c r="O2" t="n">
+        <v>202.8625882856614</v>
+      </c>
+      <c r="P2" t="n">
         <v>202.8625882856613</v>
-      </c>
-      <c r="P2" t="n">
-        <v>202.8625882856614</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>379.6037214868668</v>
+        <v>379.6037214868667</v>
       </c>
       <c r="F4" t="n">
         <v>379.6037214868668</v>
@@ -26811,13 +26811,13 @@
         <v>379.6037214868668</v>
       </c>
       <c r="J4" t="n">
-        <v>691.0521768465655</v>
+        <v>691.0521768465657</v>
       </c>
       <c r="K4" t="n">
-        <v>691.0521768465659</v>
+        <v>691.0521768465658</v>
       </c>
       <c r="L4" t="n">
-        <v>684.1761311048544</v>
+        <v>684.1761311048543</v>
       </c>
       <c r="M4" t="n">
         <v>491.8144777042309</v>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>106.1624376829868</v>
+        <v>106.1624376829867</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.03174648384928</v>
+        <v>44.03174648384919</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>107.9414082372823</v>
       </c>
       <c r="M2" t="n">
-        <v>50.88943356452984</v>
+        <v>50.88943356452992</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.03174648384922</v>
+        <v>44.03174648384919</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>372.7276757451554</v>
+        <v>372.7276757451553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.4484553596987</v>
+        <v>311.4484553596989</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>106.1624376829868</v>
+        <v>106.1624376829867</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.03174648384928</v>
+        <v>44.03174648384919</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>372.7276757451554</v>
+        <v>372.7276757451553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.8739489829624</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.114653472833368</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27907,10 +27907,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>245.2892318185371</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>320.8762127284235</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F9" t="n">
         <v>138.1931666516724</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>130.4674714214992</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>106.9256144734549</v>
       </c>
       <c r="I9" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>246.385153397878</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28029,10 +28029,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>148.5744291855468</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K10" t="n">
         <v>15.39344608417142</v>
@@ -28062,7 +28062,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>224.6106090740886</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>283.1880179823981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="C11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="D11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="E11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="F11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="G11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="H11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="I11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.5376120368569</v>
       </c>
       <c r="S11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="T11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="U11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="V11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="W11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="X11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="F12" t="n">
-        <v>131.4849549414827</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>131.4849549414827</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6580325013388</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S12" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="T12" t="n">
-        <v>131.4849549414827</v>
+        <v>130.2652001770789</v>
       </c>
       <c r="U12" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="V12" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="W12" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="X12" t="n">
-        <v>20.60716767573976</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="C13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="D13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="E13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="F13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="G13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="H13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="I13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="J13" t="n">
-        <v>77.5410692128888</v>
+        <v>123.2273531025039</v>
       </c>
       <c r="K13" t="n">
-        <v>131.4849549414827</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="M13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="N13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="O13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="P13" t="n">
-        <v>45.68628388961422</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="R13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="S13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="T13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="U13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="V13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="W13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="X13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.4849549414827</v>
+        <v>131.4849549414826</v>
       </c>
     </row>
     <row r="14">
@@ -28406,16 +28406,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>131.4849549414827</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>131.4849549414827</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>131.4849549414827</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>131.4849549414827</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>131.4849549414827</v>
@@ -28424,7 +28424,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I15" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S15" t="n">
         <v>131.4849549414827</v>
@@ -28460,19 +28460,19 @@
         <v>131.4849549414827</v>
       </c>
       <c r="U15" t="n">
-        <v>20.60716767573979</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>20.60716767573959</v>
       </c>
     </row>
     <row r="16">
@@ -28506,16 +28506,16 @@
         <v>131.4849549414827</v>
       </c>
       <c r="J16" t="n">
-        <v>77.5410692128888</v>
+        <v>131.4849549414827</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>123.2273531025026</v>
+      </c>
+      <c r="M16" t="n">
         <v>131.4849549414827</v>
-      </c>
-      <c r="L16" t="n">
-        <v>131.4849549414827</v>
-      </c>
-      <c r="M16" t="n">
-        <v>45.68628388961429</v>
       </c>
       <c r="N16" t="n">
         <v>131.4849549414827</v>
@@ -28649,10 +28649,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>87.26779717996567</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0766461933578</v>
@@ -28661,7 +28661,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I18" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S18" t="n">
         <v>166.7261598874923</v>
@@ -28697,16 +28697,16 @@
         <v>199.0890514084411</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9238247803266</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>212.1861699965006</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>148.7221335527286</v>
       </c>
       <c r="J19" t="n">
-        <v>77.54106921288879</v>
+        <v>77.5410692128888</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,16 +28764,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.42723297334099</v>
+        <v>67.42723297334101</v>
       </c>
       <c r="R19" t="n">
         <v>167.233422683571</v>
       </c>
       <c r="S19" t="n">
-        <v>220.1174957349851</v>
+        <v>39.92524226043636</v>
       </c>
       <c r="T19" t="n">
-        <v>46.79737451297399</v>
+        <v>226.9896279875231</v>
       </c>
       <c r="U19" t="n">
         <v>237.6473926244694</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="C20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="D20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="E20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="F20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="G20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="H20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="I20" t="n">
         <v>191.2466633530617</v>
@@ -28855,19 +28855,19 @@
         <v>220.9124389483108</v>
       </c>
       <c r="U20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="V20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="W20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="X20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
     </row>
     <row r="21">
@@ -28883,13 +28883,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>135.3957019280425</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.0766461933578</v>
@@ -28898,7 +28898,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I21" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S21" t="n">
         <v>166.7261598874923</v>
@@ -28934,10 +28934,10 @@
         <v>199.0890514084411</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9238247803266</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>54.54108954109944</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -29007,19 +29007,19 @@
         <v>167.233422683571</v>
       </c>
       <c r="S22" t="n">
-        <v>220.1174957349851</v>
+        <v>39.92524226043611</v>
       </c>
       <c r="T22" t="n">
-        <v>46.79737451297399</v>
+        <v>226.9896279875231</v>
       </c>
       <c r="U22" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="V22" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="W22" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="C23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="D23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="E23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="F23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="G23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="H23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="I23" t="n">
         <v>191.2466633530617</v>
@@ -29092,19 +29092,19 @@
         <v>220.9124389483108</v>
       </c>
       <c r="U23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="V23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="W23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="X23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
     </row>
     <row r="24">
@@ -29120,13 +29120,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>135.3957019280423</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0766461933578</v>
@@ -29135,7 +29135,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I24" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,10 +29171,10 @@
         <v>199.0890514084411</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9238247803266</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>212.1861699965006</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29244,19 +29244,19 @@
         <v>167.233422683571</v>
       </c>
       <c r="S25" t="n">
-        <v>39.92524226043608</v>
+        <v>220.1174957349851</v>
       </c>
       <c r="T25" t="n">
-        <v>226.9896279875231</v>
+        <v>46.79737451297396</v>
       </c>
       <c r="U25" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="V25" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="W25" t="n">
-        <v>237.6473926244694</v>
+        <v>237.6473926244695</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29320,7 +29320,7 @@
         <v>150.194184166836</v>
       </c>
       <c r="R26" t="n">
-        <v>150.1941841668344</v>
+        <v>150.194184166836</v>
       </c>
       <c r="S26" t="n">
         <v>150.194184166836</v>
@@ -29372,7 +29372,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I27" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S27" t="n">
         <v>150.194184166836</v>
@@ -29408,7 +29408,7 @@
         <v>150.194184166836</v>
       </c>
       <c r="U27" t="n">
-        <v>68.0693350107419</v>
+        <v>68.06933501074235</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29451,28 +29451,28 @@
         <v>150.194184166836</v>
       </c>
       <c r="I28" t="n">
-        <v>148.7221335527286</v>
+        <v>150.194184166836</v>
       </c>
       <c r="J28" t="n">
-        <v>150.194184166836</v>
+        <v>77.5410692128888</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>88.93509660004966</v>
       </c>
       <c r="L28" t="n">
         <v>150.194184166836</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>150.194184166836</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>17.75403226020921</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>150.194184166836</v>
@@ -29609,7 +29609,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I30" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>150.194184166836</v>
       </c>
       <c r="T30" t="n">
         <v>150.194184166836</v>
       </c>
       <c r="U30" t="n">
-        <v>68.0693350107419</v>
+        <v>68.06933501074235</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>150.194184166836</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>148.7221335527286</v>
       </c>
       <c r="J31" t="n">
-        <v>100.520983453705</v>
+        <v>150.194184166836</v>
       </c>
       <c r="K31" t="n">
         <v>150.194184166836</v>
@@ -29700,19 +29700,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>150.194184166836</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>100.5209834537056</v>
       </c>
       <c r="O31" t="n">
-        <v>150.194184166836</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>150.194184166836</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.42723297334099</v>
+        <v>67.42723297334101</v>
       </c>
       <c r="R31" t="n">
         <v>150.194184166836</v>
@@ -29791,7 +29791,7 @@
         <v>151.9731547211316</v>
       </c>
       <c r="Q32" t="n">
-        <v>108.7360567955947</v>
+        <v>108.7360567955943</v>
       </c>
       <c r="R32" t="n">
         <v>151.9731547211316</v>
@@ -29846,7 +29846,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I33" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S33" t="n">
         <v>151.9731547211316</v>
@@ -29882,7 +29882,7 @@
         <v>151.9731547211316</v>
       </c>
       <c r="U33" t="n">
-        <v>64.51139390215059</v>
+        <v>64.51139390215104</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29928,25 +29928,25 @@
         <v>148.7221335527286</v>
       </c>
       <c r="J34" t="n">
+        <v>77.5410692128888</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>151.9731547211316</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>63.28914520176883</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>151.9731547211316</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
-        <v>140.8302144146576</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>151.9731547211316</v>
@@ -30007,28 +30007,28 @@
         <v>202.8625882856614</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>140.297293456209</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>202.8625882856614</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>140.297293456209</v>
       </c>
       <c r="R35" t="n">
         <v>202.8625882856614</v>
@@ -30083,7 +30083,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I36" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S36" t="n">
         <v>166.7261598874923</v>
@@ -30119,7 +30119,7 @@
         <v>199.0890514084411</v>
       </c>
       <c r="U36" t="n">
-        <v>2.642492048480648</v>
+        <v>2.642492048480875</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>152.8122272911128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30162,10 +30162,10 @@
         <v>160.2379591264571</v>
       </c>
       <c r="I37" t="n">
-        <v>148.7221335527286</v>
+        <v>152.9188878256291</v>
       </c>
       <c r="J37" t="n">
-        <v>77.54106921288879</v>
+        <v>77.5410692128888</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.42723297334099</v>
+        <v>67.42723297334101</v>
       </c>
       <c r="R37" t="n">
         <v>167.233422683571</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>140.2972934562088</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>140.2972934562081</v>
       </c>
       <c r="R38" t="n">
         <v>202.8625882856614</v>
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0766461933578</v>
@@ -30320,7 +30320,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I39" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S39" t="n">
         <v>166.7261598874923</v>
       </c>
       <c r="T39" t="n">
-        <v>56.66233106353769</v>
+        <v>199.0890514084411</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2.642492048480875</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>148.7221335527286</v>
       </c>
       <c r="J40" t="n">
-        <v>77.54106921288879</v>
+        <v>77.5410692128888</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.42723297334099</v>
+        <v>67.42723297334101</v>
       </c>
       <c r="R40" t="n">
-        <v>171.4301769564714</v>
+        <v>171.4301769564715</v>
       </c>
       <c r="S40" t="n">
         <v>202.8625882856614</v>
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="C41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="D41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="E41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="F41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="G41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="H41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="I41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="J41" t="n">
-        <v>202.8625882856613</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>145.5057674744169</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,10 +30493,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>140.297293456209</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="S41" t="n">
-        <v>197.6541142674533</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="T41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="U41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="V41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="W41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="X41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="Y41" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
     </row>
     <row r="42">
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0766461933578</v>
       </c>
       <c r="H42" t="n">
         <v>109.6580325013388</v>
       </c>
       <c r="I42" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S42" t="n">
         <v>166.7261598874923</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0890514084411</v>
+        <v>56.66233106353789</v>
       </c>
       <c r="U42" t="n">
-        <v>139.7191382418383</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>184.0287344548378</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30639,7 +30639,7 @@
         <v>148.7221335527286</v>
       </c>
       <c r="J43" t="n">
-        <v>77.54106921288879</v>
+        <v>77.5410692128888</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>4.196754272900783</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.42723297334099</v>
+        <v>67.42723297334101</v>
       </c>
       <c r="R43" t="n">
         <v>167.233422683571</v>
       </c>
       <c r="S43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="T43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="U43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="V43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="W43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="X43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.8625882856613</v>
+        <v>202.8625882856614</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="C44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="D44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="E44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="F44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="G44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="H44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="I44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>140.2972934562091</v>
       </c>
       <c r="P44" t="n">
-        <v>140.2972934562091</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="R44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="S44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="T44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="U44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="V44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="W44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="X44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>109.6580325013388</v>
       </c>
       <c r="I45" t="n">
-        <v>80.20831217885015</v>
+        <v>80.20831217885016</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.58842428756937</v>
+        <v>83.58842428756938</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.7261598874923</v>
       </c>
       <c r="T45" t="n">
         <v>199.0890514084411</v>
       </c>
       <c r="U45" t="n">
-        <v>169.368651935973</v>
+        <v>2.642492048480875</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>152.8122272911133</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -30876,7 +30876,7 @@
         <v>148.7221335527286</v>
       </c>
       <c r="J46" t="n">
-        <v>77.54106921288879</v>
+        <v>77.5410692128888</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.42723297334099</v>
+        <v>67.42723297334101</v>
       </c>
       <c r="R46" t="n">
-        <v>171.4301769564714</v>
+        <v>167.233422683571</v>
       </c>
       <c r="S46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="T46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="U46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="V46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="W46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="X46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.8625882856614</v>
+        <v>202.8625882856613</v>
       </c>
     </row>
   </sheetData>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210987</v>
       </c>
       <c r="H11" t="n">
-        <v>5.108133402460954</v>
+        <v>5.108133402460953</v>
       </c>
       <c r="I11" t="n">
         <v>19.22922621734418</v>
       </c>
       <c r="J11" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K11" t="n">
-        <v>63.44672030204252</v>
+        <v>63.44672030204251</v>
       </c>
       <c r="L11" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M11" t="n">
-        <v>87.5814504386547</v>
+        <v>87.58145043865468</v>
       </c>
       <c r="N11" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O11" t="n">
-        <v>84.0388635971091</v>
+        <v>84.03886359710908</v>
       </c>
       <c r="P11" t="n">
-        <v>71.72522577230696</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q11" t="n">
         <v>53.86265748468259</v>
       </c>
       <c r="R11" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S11" t="n">
         <v>11.36595531879205</v>
@@ -31792,7 +31792,7 @@
         <v>2.183410615820611</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>2.577411735157701</v>
       </c>
       <c r="I12" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564918</v>
       </c>
       <c r="J12" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K12" t="n">
-        <v>43.09380919768441</v>
+        <v>43.0938091976844</v>
       </c>
       <c r="L12" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265302</v>
       </c>
       <c r="M12" t="n">
-        <v>67.61901722981851</v>
+        <v>67.6190172298185</v>
       </c>
       <c r="N12" t="n">
-        <v>69.40869140922638</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O12" t="n">
-        <v>63.49539255090817</v>
+        <v>63.49539255090816</v>
       </c>
       <c r="P12" t="n">
         <v>50.96065037479381</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437317</v>
       </c>
       <c r="R12" t="n">
         <v>16.56940986507376</v>
       </c>
       <c r="S12" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T12" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>0.2237356563477225</v>
       </c>
       <c r="H13" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I13" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529693</v>
       </c>
       <c r="J13" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K13" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L13" t="n">
-        <v>33.26339021736959</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M13" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276162</v>
       </c>
       <c r="N13" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273832</v>
       </c>
       <c r="O13" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P13" t="n">
         <v>27.0598106550009</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R13" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S13" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9559614407584506</v>
+        <v>0.9559614407584504</v>
       </c>
       <c r="U13" t="n">
         <v>0.01220376307351215</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210987</v>
       </c>
       <c r="H14" t="n">
-        <v>5.108133402460954</v>
+        <v>5.108133402460953</v>
       </c>
       <c r="I14" t="n">
         <v>19.22922621734418</v>
       </c>
       <c r="J14" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K14" t="n">
-        <v>63.44672030204252</v>
+        <v>63.44672030204251</v>
       </c>
       <c r="L14" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M14" t="n">
-        <v>87.5814504386547</v>
+        <v>87.58145043865468</v>
       </c>
       <c r="N14" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O14" t="n">
-        <v>84.0388635971091</v>
+        <v>84.03886359710908</v>
       </c>
       <c r="P14" t="n">
-        <v>71.72522577230696</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q14" t="n">
         <v>53.86265748468259</v>
       </c>
       <c r="R14" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S14" t="n">
         <v>11.36595531879205</v>
@@ -32029,7 +32029,7 @@
         <v>2.183410615820611</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>2.577411735157701</v>
       </c>
       <c r="I15" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564918</v>
       </c>
       <c r="J15" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K15" t="n">
-        <v>43.09380919768441</v>
+        <v>43.0938091976844</v>
       </c>
       <c r="L15" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265302</v>
       </c>
       <c r="M15" t="n">
-        <v>67.61901722981851</v>
+        <v>67.6190172298185</v>
       </c>
       <c r="N15" t="n">
-        <v>69.40869140922638</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O15" t="n">
-        <v>63.49539255090817</v>
+        <v>63.49539255090816</v>
       </c>
       <c r="P15" t="n">
         <v>50.96065037479381</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437317</v>
       </c>
       <c r="R15" t="n">
         <v>16.56940986507376</v>
       </c>
       <c r="S15" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T15" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,43 +32148,43 @@
         <v>0.2237356563477225</v>
       </c>
       <c r="H16" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I16" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529693</v>
       </c>
       <c r="J16" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K16" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L16" t="n">
-        <v>33.26339021736959</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M16" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276162</v>
       </c>
       <c r="N16" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273832</v>
       </c>
       <c r="O16" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P16" t="n">
         <v>27.0598106550009</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R16" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S16" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9559614407584506</v>
+        <v>0.9559614407584504</v>
       </c>
       <c r="U16" t="n">
         <v>0.01220376307351215</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210987</v>
       </c>
       <c r="H17" t="n">
-        <v>5.108133402460955</v>
+        <v>5.108133402460953</v>
       </c>
       <c r="I17" t="n">
         <v>19.22922621734418</v>
       </c>
       <c r="J17" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K17" t="n">
-        <v>63.44672030204253</v>
+        <v>63.44672030204251</v>
       </c>
       <c r="L17" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M17" t="n">
-        <v>87.58145043865471</v>
+        <v>87.58145043865468</v>
       </c>
       <c r="N17" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O17" t="n">
-        <v>84.03886359710911</v>
+        <v>84.03886359710908</v>
       </c>
       <c r="P17" t="n">
-        <v>71.72522577230697</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.8626574846826</v>
+        <v>53.86265748468259</v>
       </c>
       <c r="R17" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S17" t="n">
         <v>11.36595531879205</v>
@@ -32266,7 +32266,7 @@
         <v>2.183410615820611</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.266870969852841</v>
+        <v>0.2668709698528409</v>
       </c>
       <c r="H18" t="n">
-        <v>2.577411735157702</v>
+        <v>2.577411735157701</v>
       </c>
       <c r="I18" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564918</v>
       </c>
       <c r="J18" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K18" t="n">
-        <v>43.09380919768441</v>
+        <v>43.0938091976844</v>
       </c>
       <c r="L18" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265302</v>
       </c>
       <c r="M18" t="n">
-        <v>67.61901722981851</v>
+        <v>67.6190172298185</v>
       </c>
       <c r="N18" t="n">
-        <v>69.40869140922639</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O18" t="n">
-        <v>63.49539255090818</v>
+        <v>63.49539255090816</v>
       </c>
       <c r="P18" t="n">
-        <v>50.96065037479382</v>
+        <v>50.96065037479381</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437317</v>
       </c>
       <c r="R18" t="n">
-        <v>16.56940986507377</v>
+        <v>16.56940986507376</v>
       </c>
       <c r="S18" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T18" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2237356563477226</v>
+        <v>0.2237356563477225</v>
       </c>
       <c r="H19" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I19" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529693</v>
       </c>
       <c r="J19" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K19" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L19" t="n">
-        <v>33.2633902173696</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M19" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276162</v>
       </c>
       <c r="N19" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273832</v>
       </c>
       <c r="O19" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P19" t="n">
-        <v>27.05981065500091</v>
+        <v>27.0598106550009</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R19" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S19" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9559614407584507</v>
+        <v>0.9559614407584504</v>
       </c>
       <c r="U19" t="n">
         <v>0.01220376307351215</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210987</v>
       </c>
       <c r="H20" t="n">
-        <v>5.108133402460954</v>
+        <v>5.108133402460953</v>
       </c>
       <c r="I20" t="n">
         <v>19.22922621734418</v>
       </c>
       <c r="J20" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K20" t="n">
-        <v>63.44672030204252</v>
+        <v>63.44672030204251</v>
       </c>
       <c r="L20" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M20" t="n">
-        <v>87.5814504386547</v>
+        <v>87.58145043865468</v>
       </c>
       <c r="N20" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O20" t="n">
-        <v>84.0388635971091</v>
+        <v>84.03886359710908</v>
       </c>
       <c r="P20" t="n">
-        <v>71.72522577230696</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q20" t="n">
         <v>53.86265748468259</v>
       </c>
       <c r="R20" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S20" t="n">
         <v>11.36595531879205</v>
@@ -32503,7 +32503,7 @@
         <v>2.183410615820611</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>2.577411735157701</v>
       </c>
       <c r="I21" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564918</v>
       </c>
       <c r="J21" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K21" t="n">
-        <v>43.09380919768441</v>
+        <v>43.0938091976844</v>
       </c>
       <c r="L21" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265302</v>
       </c>
       <c r="M21" t="n">
-        <v>67.61901722981851</v>
+        <v>67.6190172298185</v>
       </c>
       <c r="N21" t="n">
-        <v>69.40869140922638</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O21" t="n">
-        <v>63.49539255090817</v>
+        <v>63.49539255090816</v>
       </c>
       <c r="P21" t="n">
         <v>50.96065037479381</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437317</v>
       </c>
       <c r="R21" t="n">
         <v>16.56940986507376</v>
       </c>
       <c r="S21" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T21" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,43 +32622,43 @@
         <v>0.2237356563477225</v>
       </c>
       <c r="H22" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I22" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529693</v>
       </c>
       <c r="J22" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K22" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L22" t="n">
-        <v>33.26339021736959</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M22" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276162</v>
       </c>
       <c r="N22" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273832</v>
       </c>
       <c r="O22" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P22" t="n">
         <v>27.0598106550009</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R22" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S22" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9559614407584506</v>
+        <v>0.9559614407584504</v>
       </c>
       <c r="U22" t="n">
         <v>0.01220376307351215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210987</v>
       </c>
       <c r="H23" t="n">
         <v>5.108133402460954</v>
@@ -32707,22 +32707,22 @@
         <v>19.22922621734418</v>
       </c>
       <c r="J23" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K23" t="n">
-        <v>63.44672030204252</v>
+        <v>63.44672030204251</v>
       </c>
       <c r="L23" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746685</v>
       </c>
       <c r="M23" t="n">
         <v>87.5814504386547</v>
       </c>
       <c r="N23" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033952</v>
       </c>
       <c r="O23" t="n">
-        <v>84.0388635971091</v>
+        <v>84.03886359710908</v>
       </c>
       <c r="P23" t="n">
         <v>71.72522577230696</v>
@@ -32740,7 +32740,7 @@
         <v>2.183410615820611</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>2.577411735157701</v>
       </c>
       <c r="I24" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564918</v>
       </c>
       <c r="J24" t="n">
         <v>25.21345421754407</v>
@@ -32792,34 +32792,34 @@
         <v>43.09380919768441</v>
       </c>
       <c r="L24" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265303</v>
       </c>
       <c r="M24" t="n">
-        <v>67.61901722981851</v>
+        <v>67.6190172298185</v>
       </c>
       <c r="N24" t="n">
         <v>69.40869140922638</v>
       </c>
       <c r="O24" t="n">
-        <v>63.49539255090817</v>
+        <v>63.49539255090816</v>
       </c>
       <c r="P24" t="n">
         <v>50.96065037479381</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437317</v>
       </c>
       <c r="R24" t="n">
         <v>16.56940986507376</v>
       </c>
       <c r="S24" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345529</v>
       </c>
       <c r="T24" t="n">
         <v>1.07567728638053</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>1.98921338098248</v>
       </c>
       <c r="I25" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529694</v>
       </c>
       <c r="J25" t="n">
         <v>15.81811090378398</v>
@@ -32877,25 +32877,25 @@
         <v>35.07158111276163</v>
       </c>
       <c r="N25" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273832</v>
       </c>
       <c r="O25" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P25" t="n">
         <v>27.0598106550009</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R25" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S25" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9559614407584506</v>
+        <v>0.9559614407584505</v>
       </c>
       <c r="U25" t="n">
         <v>0.01220376307351215</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210986</v>
       </c>
       <c r="H26" t="n">
-        <v>5.108133402460954</v>
+        <v>5.108133402460952</v>
       </c>
       <c r="I26" t="n">
-        <v>19.22922621734418</v>
+        <v>19.22922621734417</v>
       </c>
       <c r="J26" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K26" t="n">
-        <v>63.44672030204252</v>
+        <v>63.4467203020425</v>
       </c>
       <c r="L26" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M26" t="n">
-        <v>87.5814504386547</v>
+        <v>87.58145043865467</v>
       </c>
       <c r="N26" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O26" t="n">
-        <v>84.0388635971091</v>
+        <v>84.03886359710907</v>
       </c>
       <c r="P26" t="n">
-        <v>71.72522577230696</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.86265748468259</v>
+        <v>53.86265748468258</v>
       </c>
       <c r="R26" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S26" t="n">
         <v>11.36595531879205</v>
       </c>
       <c r="T26" t="n">
-        <v>2.183410615820611</v>
+        <v>2.18341061582061</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>0.2668709698528409</v>
       </c>
       <c r="H27" t="n">
-        <v>2.577411735157701</v>
+        <v>2.5774117351577</v>
       </c>
       <c r="I27" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564917</v>
       </c>
       <c r="J27" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K27" t="n">
-        <v>43.09380919768441</v>
+        <v>43.09380919768439</v>
       </c>
       <c r="L27" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265301</v>
       </c>
       <c r="M27" t="n">
-        <v>67.61901722981851</v>
+        <v>67.61901722981848</v>
       </c>
       <c r="N27" t="n">
-        <v>69.40869140922638</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O27" t="n">
-        <v>63.49539255090817</v>
+        <v>63.49539255090814</v>
       </c>
       <c r="P27" t="n">
-        <v>50.96065037479381</v>
+        <v>50.9606503747938</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437316</v>
       </c>
       <c r="R27" t="n">
         <v>16.56940986507376</v>
       </c>
       <c r="S27" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T27" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,43 +33096,43 @@
         <v>0.2237356563477225</v>
       </c>
       <c r="H28" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I28" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529692</v>
       </c>
       <c r="J28" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K28" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L28" t="n">
-        <v>33.26339021736959</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M28" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276161</v>
       </c>
       <c r="N28" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273831</v>
       </c>
       <c r="O28" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P28" t="n">
-        <v>27.0598106550009</v>
+        <v>27.05981065500089</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R28" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S28" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9559614407584506</v>
+        <v>0.9559614407584502</v>
       </c>
       <c r="U28" t="n">
         <v>0.01220376307351215</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210986</v>
       </c>
       <c r="H29" t="n">
-        <v>5.108133402460955</v>
+        <v>5.108133402460952</v>
       </c>
       <c r="I29" t="n">
-        <v>19.22922621734418</v>
+        <v>19.22922621734417</v>
       </c>
       <c r="J29" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K29" t="n">
-        <v>63.44672030204253</v>
+        <v>63.4467203020425</v>
       </c>
       <c r="L29" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M29" t="n">
-        <v>87.58145043865471</v>
+        <v>87.58145043865467</v>
       </c>
       <c r="N29" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O29" t="n">
-        <v>84.03886359710911</v>
+        <v>84.03886359710907</v>
       </c>
       <c r="P29" t="n">
-        <v>71.72522577230697</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.8626574846826</v>
+        <v>53.86265748468258</v>
       </c>
       <c r="R29" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S29" t="n">
         <v>11.36595531879205</v>
       </c>
       <c r="T29" t="n">
-        <v>2.183410615820611</v>
+        <v>2.18341061582061</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.266870969852841</v>
+        <v>0.2668709698528409</v>
       </c>
       <c r="H30" t="n">
-        <v>2.577411735157702</v>
+        <v>2.5774117351577</v>
       </c>
       <c r="I30" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564917</v>
       </c>
       <c r="J30" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K30" t="n">
-        <v>43.09380919768441</v>
+        <v>43.09380919768439</v>
       </c>
       <c r="L30" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265301</v>
       </c>
       <c r="M30" t="n">
-        <v>67.61901722981851</v>
+        <v>67.61901722981848</v>
       </c>
       <c r="N30" t="n">
-        <v>69.40869140922639</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O30" t="n">
-        <v>63.49539255090818</v>
+        <v>63.49539255090814</v>
       </c>
       <c r="P30" t="n">
-        <v>50.96065037479382</v>
+        <v>50.9606503747938</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437316</v>
       </c>
       <c r="R30" t="n">
-        <v>16.56940986507377</v>
+        <v>16.56940986507376</v>
       </c>
       <c r="S30" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T30" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2237356563477226</v>
+        <v>0.2237356563477225</v>
       </c>
       <c r="H31" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I31" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529692</v>
       </c>
       <c r="J31" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K31" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L31" t="n">
-        <v>33.2633902173696</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M31" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276161</v>
       </c>
       <c r="N31" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273831</v>
       </c>
       <c r="O31" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P31" t="n">
-        <v>27.05981065500091</v>
+        <v>27.05981065500089</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R31" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S31" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9559614407584507</v>
+        <v>0.9559614407584502</v>
       </c>
       <c r="U31" t="n">
         <v>0.01220376307351215</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210986</v>
       </c>
       <c r="H32" t="n">
-        <v>5.108133402460955</v>
+        <v>5.108133402460952</v>
       </c>
       <c r="I32" t="n">
-        <v>19.22922621734418</v>
+        <v>19.22922621734417</v>
       </c>
       <c r="J32" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K32" t="n">
-        <v>63.44672030204253</v>
+        <v>63.4467203020425</v>
       </c>
       <c r="L32" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M32" t="n">
-        <v>87.58145043865471</v>
+        <v>87.58145043865467</v>
       </c>
       <c r="N32" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O32" t="n">
-        <v>84.03886359710911</v>
+        <v>84.03886359710907</v>
       </c>
       <c r="P32" t="n">
-        <v>71.72522577230697</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.8626574846826</v>
+        <v>53.86265748468258</v>
       </c>
       <c r="R32" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S32" t="n">
         <v>11.36595531879205</v>
       </c>
       <c r="T32" t="n">
-        <v>2.183410615820611</v>
+        <v>2.18341061582061</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.266870969852841</v>
+        <v>0.2668709698528409</v>
       </c>
       <c r="H33" t="n">
-        <v>2.577411735157702</v>
+        <v>2.5774117351577</v>
       </c>
       <c r="I33" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564917</v>
       </c>
       <c r="J33" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K33" t="n">
-        <v>43.09380919768441</v>
+        <v>43.09380919768439</v>
       </c>
       <c r="L33" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265301</v>
       </c>
       <c r="M33" t="n">
-        <v>67.61901722981851</v>
+        <v>67.61901722981848</v>
       </c>
       <c r="N33" t="n">
-        <v>69.40869140922639</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O33" t="n">
-        <v>63.49539255090818</v>
+        <v>63.49539255090814</v>
       </c>
       <c r="P33" t="n">
-        <v>50.96065037479382</v>
+        <v>50.9606503747938</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437316</v>
       </c>
       <c r="R33" t="n">
-        <v>16.56940986507377</v>
+        <v>16.56940986507376</v>
       </c>
       <c r="S33" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T33" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2237356563477226</v>
+        <v>0.2237356563477225</v>
       </c>
       <c r="H34" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I34" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529692</v>
       </c>
       <c r="J34" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K34" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L34" t="n">
-        <v>33.2633902173696</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M34" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276161</v>
       </c>
       <c r="N34" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273831</v>
       </c>
       <c r="O34" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P34" t="n">
-        <v>27.05981065500091</v>
+        <v>27.05981065500089</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R34" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S34" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9559614407584507</v>
+        <v>0.9559614407584502</v>
       </c>
       <c r="U34" t="n">
         <v>0.01220376307351215</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210986</v>
       </c>
       <c r="H35" t="n">
-        <v>5.108133402460955</v>
+        <v>5.108133402460952</v>
       </c>
       <c r="I35" t="n">
-        <v>19.22922621734418</v>
+        <v>19.22922621734417</v>
       </c>
       <c r="J35" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K35" t="n">
-        <v>63.44672030204253</v>
+        <v>63.4467203020425</v>
       </c>
       <c r="L35" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M35" t="n">
-        <v>87.58145043865471</v>
+        <v>87.58145043865467</v>
       </c>
       <c r="N35" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O35" t="n">
-        <v>84.03886359710911</v>
+        <v>84.03886359710907</v>
       </c>
       <c r="P35" t="n">
-        <v>71.72522577230697</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.8626574846826</v>
+        <v>53.86265748468258</v>
       </c>
       <c r="R35" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S35" t="n">
         <v>11.36595531879205</v>
       </c>
       <c r="T35" t="n">
-        <v>2.183410615820611</v>
+        <v>2.18341061582061</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.266870969852841</v>
+        <v>0.2668709698528409</v>
       </c>
       <c r="H36" t="n">
-        <v>2.577411735157702</v>
+        <v>2.5774117351577</v>
       </c>
       <c r="I36" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564917</v>
       </c>
       <c r="J36" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K36" t="n">
-        <v>43.09380919768441</v>
+        <v>43.09380919768439</v>
       </c>
       <c r="L36" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265301</v>
       </c>
       <c r="M36" t="n">
-        <v>67.61901722981851</v>
+        <v>67.61901722981848</v>
       </c>
       <c r="N36" t="n">
-        <v>69.40869140922639</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O36" t="n">
-        <v>63.49539255090818</v>
+        <v>63.49539255090814</v>
       </c>
       <c r="P36" t="n">
-        <v>50.96065037479382</v>
+        <v>50.9606503747938</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437316</v>
       </c>
       <c r="R36" t="n">
-        <v>16.56940986507377</v>
+        <v>16.56940986507376</v>
       </c>
       <c r="S36" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T36" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2237356563477226</v>
+        <v>0.2237356563477225</v>
       </c>
       <c r="H37" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I37" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529692</v>
       </c>
       <c r="J37" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K37" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L37" t="n">
-        <v>33.2633902173696</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M37" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276161</v>
       </c>
       <c r="N37" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273831</v>
       </c>
       <c r="O37" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P37" t="n">
-        <v>27.05981065500091</v>
+        <v>27.05981065500089</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R37" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S37" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9559614407584507</v>
+        <v>0.9559614407584502</v>
       </c>
       <c r="U37" t="n">
         <v>0.01220376307351215</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210986</v>
       </c>
       <c r="H38" t="n">
-        <v>5.108133402460955</v>
+        <v>5.108133402460952</v>
       </c>
       <c r="I38" t="n">
-        <v>19.22922621734418</v>
+        <v>19.22922621734417</v>
       </c>
       <c r="J38" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K38" t="n">
-        <v>63.44672030204253</v>
+        <v>63.4467203020425</v>
       </c>
       <c r="L38" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M38" t="n">
-        <v>87.58145043865471</v>
+        <v>87.58145043865467</v>
       </c>
       <c r="N38" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O38" t="n">
-        <v>84.03886359710911</v>
+        <v>84.03886359710907</v>
       </c>
       <c r="P38" t="n">
-        <v>71.72522577230697</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.8626574846826</v>
+        <v>53.86265748468258</v>
       </c>
       <c r="R38" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S38" t="n">
         <v>11.36595531879205</v>
       </c>
       <c r="T38" t="n">
-        <v>2.183410615820611</v>
+        <v>2.18341061582061</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.266870969852841</v>
+        <v>0.2668709698528409</v>
       </c>
       <c r="H39" t="n">
-        <v>2.577411735157702</v>
+        <v>2.5774117351577</v>
       </c>
       <c r="I39" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564917</v>
       </c>
       <c r="J39" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K39" t="n">
-        <v>43.09380919768441</v>
+        <v>43.09380919768439</v>
       </c>
       <c r="L39" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265301</v>
       </c>
       <c r="M39" t="n">
-        <v>67.61901722981851</v>
+        <v>67.61901722981848</v>
       </c>
       <c r="N39" t="n">
-        <v>69.40869140922639</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O39" t="n">
-        <v>63.49539255090818</v>
+        <v>63.49539255090814</v>
       </c>
       <c r="P39" t="n">
-        <v>50.96065037479382</v>
+        <v>50.9606503747938</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437316</v>
       </c>
       <c r="R39" t="n">
-        <v>16.56940986507377</v>
+        <v>16.56940986507376</v>
       </c>
       <c r="S39" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T39" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2237356563477226</v>
+        <v>0.2237356563477225</v>
       </c>
       <c r="H40" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I40" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529692</v>
       </c>
       <c r="J40" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K40" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L40" t="n">
-        <v>33.2633902173696</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M40" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276161</v>
       </c>
       <c r="N40" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273831</v>
       </c>
       <c r="O40" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P40" t="n">
-        <v>27.05981065500091</v>
+        <v>27.05981065500089</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R40" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S40" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9559614407584507</v>
+        <v>0.9559614407584502</v>
       </c>
       <c r="U40" t="n">
         <v>0.01220376307351215</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210986</v>
       </c>
       <c r="H41" t="n">
-        <v>5.108133402460955</v>
+        <v>5.108133402460952</v>
       </c>
       <c r="I41" t="n">
-        <v>19.22922621734418</v>
+        <v>19.22922621734417</v>
       </c>
       <c r="J41" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K41" t="n">
-        <v>63.44672030204253</v>
+        <v>63.4467203020425</v>
       </c>
       <c r="L41" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M41" t="n">
-        <v>87.58145043865471</v>
+        <v>87.58145043865467</v>
       </c>
       <c r="N41" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O41" t="n">
-        <v>84.03886359710911</v>
+        <v>84.03886359710907</v>
       </c>
       <c r="P41" t="n">
-        <v>71.72522577230697</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.8626574846826</v>
+        <v>53.86265748468258</v>
       </c>
       <c r="R41" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S41" t="n">
         <v>11.36595531879205</v>
       </c>
       <c r="T41" t="n">
-        <v>2.183410615820611</v>
+        <v>2.18341061582061</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.266870969852841</v>
+        <v>0.2668709698528409</v>
       </c>
       <c r="H42" t="n">
-        <v>2.577411735157702</v>
+        <v>2.5774117351577</v>
       </c>
       <c r="I42" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564917</v>
       </c>
       <c r="J42" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K42" t="n">
-        <v>43.09380919768441</v>
+        <v>43.09380919768439</v>
       </c>
       <c r="L42" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265301</v>
       </c>
       <c r="M42" t="n">
-        <v>67.61901722981851</v>
+        <v>67.61901722981848</v>
       </c>
       <c r="N42" t="n">
-        <v>69.40869140922639</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O42" t="n">
-        <v>63.49539255090818</v>
+        <v>63.49539255090814</v>
       </c>
       <c r="P42" t="n">
-        <v>50.96065037479382</v>
+        <v>50.9606503747938</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437316</v>
       </c>
       <c r="R42" t="n">
-        <v>16.56940986507377</v>
+        <v>16.56940986507376</v>
       </c>
       <c r="S42" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T42" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2237356563477226</v>
+        <v>0.2237356563477225</v>
       </c>
       <c r="H43" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I43" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529692</v>
       </c>
       <c r="J43" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K43" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L43" t="n">
-        <v>33.2633902173696</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M43" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276161</v>
       </c>
       <c r="N43" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273831</v>
       </c>
       <c r="O43" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P43" t="n">
-        <v>27.05981065500091</v>
+        <v>27.05981065500089</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R43" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S43" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9559614407584507</v>
+        <v>0.9559614407584502</v>
       </c>
       <c r="U43" t="n">
         <v>0.01220376307351215</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4987802663210988</v>
+        <v>0.4987802663210986</v>
       </c>
       <c r="H44" t="n">
-        <v>5.108133402460955</v>
+        <v>5.108133402460952</v>
       </c>
       <c r="I44" t="n">
-        <v>19.22922621734418</v>
+        <v>19.22922621734417</v>
       </c>
       <c r="J44" t="n">
-        <v>42.3333516286704</v>
+        <v>42.33335162867039</v>
       </c>
       <c r="K44" t="n">
-        <v>63.44672030204253</v>
+        <v>63.4467203020425</v>
       </c>
       <c r="L44" t="n">
-        <v>78.71126687746687</v>
+        <v>78.71126687746684</v>
       </c>
       <c r="M44" t="n">
-        <v>87.58145043865471</v>
+        <v>87.58145043865467</v>
       </c>
       <c r="N44" t="n">
-        <v>88.99860987033954</v>
+        <v>88.99860987033951</v>
       </c>
       <c r="O44" t="n">
-        <v>84.03886359710911</v>
+        <v>84.03886359710907</v>
       </c>
       <c r="P44" t="n">
-        <v>71.72522577230697</v>
+        <v>71.72522577230694</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.8626574846826</v>
+        <v>53.86265748468258</v>
       </c>
       <c r="R44" t="n">
-        <v>31.33150590429275</v>
+        <v>31.33150590429274</v>
       </c>
       <c r="S44" t="n">
         <v>11.36595531879205</v>
       </c>
       <c r="T44" t="n">
-        <v>2.183410615820611</v>
+        <v>2.18341061582061</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0399024213056879</v>
+        <v>0.03990242130568789</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.266870969852841</v>
+        <v>0.2668709698528409</v>
       </c>
       <c r="H45" t="n">
-        <v>2.577411735157702</v>
+        <v>2.5774117351577</v>
       </c>
       <c r="I45" t="n">
-        <v>9.18832067256492</v>
+        <v>9.188320672564917</v>
       </c>
       <c r="J45" t="n">
-        <v>25.21345421754407</v>
+        <v>25.21345421754406</v>
       </c>
       <c r="K45" t="n">
-        <v>43.09380919768441</v>
+        <v>43.09380919768439</v>
       </c>
       <c r="L45" t="n">
-        <v>57.94494457265304</v>
+        <v>57.94494457265301</v>
       </c>
       <c r="M45" t="n">
-        <v>67.61901722981851</v>
+        <v>67.61901722981848</v>
       </c>
       <c r="N45" t="n">
-        <v>69.40869140922639</v>
+        <v>69.40869140922636</v>
       </c>
       <c r="O45" t="n">
-        <v>63.49539255090818</v>
+        <v>63.49539255090814</v>
       </c>
       <c r="P45" t="n">
-        <v>50.96065037479382</v>
+        <v>50.9606503747938</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.06584520437318</v>
+        <v>34.06584520437316</v>
       </c>
       <c r="R45" t="n">
-        <v>16.56940986507377</v>
+        <v>16.56940986507376</v>
       </c>
       <c r="S45" t="n">
-        <v>4.95701121634553</v>
+        <v>4.957011216345528</v>
       </c>
       <c r="T45" t="n">
-        <v>1.07567728638053</v>
+        <v>1.075677286380529</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01755730064821323</v>
+        <v>0.01755730064821322</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2237356563477226</v>
+        <v>0.2237356563477225</v>
       </c>
       <c r="H46" t="n">
-        <v>1.98921338098248</v>
+        <v>1.989213380982479</v>
       </c>
       <c r="I46" t="n">
-        <v>6.728341374529695</v>
+        <v>6.728341374529692</v>
       </c>
       <c r="J46" t="n">
         <v>15.81811090378398</v>
       </c>
       <c r="K46" t="n">
-        <v>25.99401534658085</v>
+        <v>25.99401534658084</v>
       </c>
       <c r="L46" t="n">
-        <v>33.2633902173696</v>
+        <v>33.26339021736958</v>
       </c>
       <c r="M46" t="n">
-        <v>35.07158111276163</v>
+        <v>35.07158111276161</v>
       </c>
       <c r="N46" t="n">
-        <v>34.23765730273833</v>
+        <v>34.23765730273831</v>
       </c>
       <c r="O46" t="n">
-        <v>31.62401804449447</v>
+        <v>31.62401804449446</v>
       </c>
       <c r="P46" t="n">
-        <v>27.05981065500091</v>
+        <v>27.05981065500089</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.73481027835339</v>
+        <v>18.73481027835338</v>
       </c>
       <c r="R46" t="n">
         <v>10.0599686935985</v>
       </c>
       <c r="S46" t="n">
-        <v>3.899102301987127</v>
+        <v>3.899102301987126</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9559614407584507</v>
+        <v>0.9559614407584502</v>
       </c>
       <c r="U46" t="n">
         <v>0.01220376307351215</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>6.598225711743296</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>6.876045741711437</v>
@@ -35270,7 +35270,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.38406227405788</v>
+        <v>30.38406227405787</v>
       </c>
       <c r="K11" t="n">
         <v>167.5022818282267</v>
@@ -35428,7 +35428,7 @@
         <v>162.29093818852</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.87195827013779</v>
+        <v>43.87195827013778</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.46686289128621</v>
+        <v>24.4668628912862</v>
       </c>
       <c r="K12" t="n">
         <v>169.717607235904</v>
@@ -35495,16 +35495,16 @@
         <v>290.230910096238</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>364.2901437857646</v>
       </c>
       <c r="N12" t="n">
-        <v>364.2901437857646</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>314.7614673831932</v>
       </c>
       <c r="P12" t="n">
-        <v>235.4490116004008</v>
+        <v>235.4490116004007</v>
       </c>
       <c r="Q12" t="n">
         <v>104.1613588542008</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.68628388961505</v>
       </c>
       <c r="K13" t="n">
-        <v>135.2094784621807</v>
+        <v>3.724523520697989</v>
       </c>
       <c r="L13" t="n">
         <v>192.3383704191684</v>
       </c>
       <c r="M13" t="n">
-        <v>206.1404130160849</v>
+        <v>206.1404130160848</v>
       </c>
       <c r="N13" t="n">
-        <v>209.8547846234496</v>
+        <v>209.8547846234495</v>
       </c>
       <c r="O13" t="n">
         <v>187.6941009000168</v>
       </c>
       <c r="P13" t="n">
-        <v>70.02465380950861</v>
+        <v>155.823324861377</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.05772196814166</v>
+        <v>64.05772196814164</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.38406227405788</v>
+        <v>30.38406227405787</v>
       </c>
       <c r="K14" t="n">
         <v>167.5022818282267</v>
@@ -35665,7 +35665,7 @@
         <v>162.29093818852</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.87195827013779</v>
+        <v>43.87195827013778</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>193.65943988966</v>
+        <v>290.230910096238</v>
       </c>
       <c r="M15" t="n">
         <v>379.6037214868668</v>
@@ -35741,7 +35741,7 @@
         <v>314.7614673831932</v>
       </c>
       <c r="P15" t="n">
-        <v>235.4490116004008</v>
+        <v>138.8775413938229</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>53.9438857285939</v>
       </c>
       <c r="K16" t="n">
-        <v>135.2094784621807</v>
+        <v>3.724523520697989</v>
       </c>
       <c r="L16" t="n">
-        <v>192.3383704191684</v>
+        <v>184.0807685801883</v>
       </c>
       <c r="M16" t="n">
-        <v>120.3417419642165</v>
+        <v>206.1404130160849</v>
       </c>
       <c r="N16" t="n">
         <v>209.8547846234496</v>
@@ -35820,10 +35820,10 @@
         <v>187.6941009000168</v>
       </c>
       <c r="P16" t="n">
-        <v>155.823324861377</v>
+        <v>155.8233248613771</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.05772196814166</v>
+        <v>64.05772196814169</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.38406227405788</v>
+        <v>30.38406227405787</v>
       </c>
       <c r="K17" t="n">
         <v>167.5022818282267</v>
@@ -35899,10 +35899,10 @@
         <v>234.7408334381677</v>
       </c>
       <c r="P17" t="n">
-        <v>162.2909381885201</v>
+        <v>162.29093818852</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.8719582701378</v>
+        <v>43.87195827013778</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.46686289128622</v>
+        <v>24.4668628912862</v>
       </c>
       <c r="K18" t="n">
         <v>169.717607235904</v>
       </c>
       <c r="L18" t="n">
-        <v>290.2309100962381</v>
+        <v>290.230910096238</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>364.2901437857648</v>
       </c>
       <c r="N18" t="n">
-        <v>364.2901437857649</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>314.7614673831932</v>
       </c>
       <c r="P18" t="n">
-        <v>235.4490116004008</v>
+        <v>235.4490116004007</v>
       </c>
       <c r="Q18" t="n">
         <v>104.1613588542008</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.724523520698</v>
+        <v>3.724523520697989</v>
       </c>
       <c r="L19" t="n">
-        <v>60.85341547768574</v>
+        <v>60.85341547768572</v>
       </c>
       <c r="M19" t="n">
-        <v>74.65545807460222</v>
+        <v>74.65545807460221</v>
       </c>
       <c r="N19" t="n">
-        <v>78.36982968196693</v>
+        <v>78.36982968196691</v>
       </c>
       <c r="O19" t="n">
         <v>56.20914595853414</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.38406227405788</v>
+        <v>30.38406227405787</v>
       </c>
       <c r="K20" t="n">
         <v>167.5022818282267</v>
@@ -36139,7 +36139,7 @@
         <v>162.29093818852</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.87195827013779</v>
+        <v>43.87195827013778</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.46686289128621</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>169.717607235904</v>
@@ -36209,16 +36209,16 @@
         <v>379.6037214868668</v>
       </c>
       <c r="N21" t="n">
-        <v>299.4478896820913</v>
+        <v>348.7636556447856</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>314.7614673831932</v>
       </c>
       <c r="P21" t="n">
-        <v>235.4490116004008</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.1613588542008</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.724523520697996</v>
+        <v>3.724523520697989</v>
       </c>
       <c r="L22" t="n">
-        <v>60.85341547768573</v>
+        <v>60.85341547768572</v>
       </c>
       <c r="M22" t="n">
-        <v>74.65545807460222</v>
+        <v>74.65545807460221</v>
       </c>
       <c r="N22" t="n">
-        <v>78.36982968196692</v>
+        <v>78.36982968196691</v>
       </c>
       <c r="O22" t="n">
         <v>56.20914595853414</v>
@@ -36376,7 +36376,7 @@
         <v>162.29093818852</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.87195827013779</v>
+        <v>43.87195827013778</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>290.230910096238</v>
       </c>
       <c r="M24" t="n">
-        <v>379.6037214868668</v>
+        <v>364.2901437857648</v>
       </c>
       <c r="N24" t="n">
-        <v>220.1354338992988</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>314.7614673831932</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>235.4490116004007</v>
       </c>
       <c r="Q24" t="n">
         <v>104.1613588542008</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.724523520697996</v>
+        <v>3.724523520697993</v>
       </c>
       <c r="L25" t="n">
         <v>60.85341547768573</v>
@@ -36525,7 +36525,7 @@
         <v>74.65545807460222</v>
       </c>
       <c r="N25" t="n">
-        <v>78.36982968196692</v>
+        <v>78.36982968196691</v>
       </c>
       <c r="O25" t="n">
         <v>56.20914595853414</v>
@@ -36616,7 +36616,7 @@
         <v>194.0661424369738</v>
       </c>
       <c r="R26" t="n">
-        <v>31.65657212997748</v>
+        <v>31.65657212997907</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.46686289128621</v>
+        <v>24.4668628912862</v>
       </c>
       <c r="K27" t="n">
         <v>169.717607235904</v>
@@ -36689,10 +36689,10 @@
         <v>314.7614673831932</v>
       </c>
       <c r="P27" t="n">
-        <v>235.4490116004008</v>
+        <v>235.4490116004007</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.1613588542008</v>
+        <v>104.1613588542007</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.472050614107418</v>
       </c>
       <c r="J28" t="n">
-        <v>72.65311495394724</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.724523520697996</v>
+        <v>92.65962012074765</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0475996445218</v>
+        <v>211.0475996445217</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8496422414383</v>
+        <v>74.65545807460219</v>
       </c>
       <c r="N28" t="n">
-        <v>78.36982968196692</v>
+        <v>78.36982968196691</v>
       </c>
       <c r="O28" t="n">
-        <v>73.96317821874335</v>
+        <v>56.20914595853413</v>
       </c>
       <c r="P28" t="n">
-        <v>24.33836991989439</v>
+        <v>174.5325540867304</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.76695119349503</v>
+        <v>82.766951193495</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>180.5782464408938</v>
       </c>
       <c r="K29" t="n">
-        <v>317.6964659950627</v>
+        <v>317.6964659950626</v>
       </c>
       <c r="L29" t="n">
         <v>410.800250624766</v>
       </c>
       <c r="M29" t="n">
-        <v>456.9429348710505</v>
+        <v>456.9429348710504</v>
       </c>
       <c r="N29" t="n">
-        <v>447.1266548525688</v>
+        <v>447.1266548525687</v>
       </c>
       <c r="O29" t="n">
-        <v>384.9350176050037</v>
+        <v>384.9350176050036</v>
       </c>
       <c r="P29" t="n">
-        <v>312.4851223553561</v>
+        <v>312.485122355356</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.0661424369738</v>
+        <v>194.0661424369737</v>
       </c>
       <c r="R29" t="n">
-        <v>31.65657212997905</v>
+        <v>31.65657212997901</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.46686289128622</v>
+        <v>24.4668628912862</v>
       </c>
       <c r="K30" t="n">
         <v>169.717607235904</v>
       </c>
       <c r="L30" t="n">
-        <v>290.2309100962381</v>
+        <v>290.230910096238</v>
       </c>
       <c r="M30" t="n">
         <v>391.1900470578001</v>
@@ -36926,10 +36926,10 @@
         <v>314.7614673831932</v>
       </c>
       <c r="P30" t="n">
-        <v>235.4490116004008</v>
+        <v>235.4490116004007</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.1613588542008</v>
+        <v>104.1613588542007</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>22.97991424081626</v>
+        <v>72.65311495394715</v>
       </c>
       <c r="K31" t="n">
         <v>153.918707687534</v>
       </c>
       <c r="L31" t="n">
-        <v>60.85341547768574</v>
+        <v>60.85341547768572</v>
       </c>
       <c r="M31" t="n">
-        <v>74.65545807460222</v>
+        <v>224.8496422414381</v>
       </c>
       <c r="N31" t="n">
-        <v>78.36982968196693</v>
+        <v>178.8908131356725</v>
       </c>
       <c r="O31" t="n">
-        <v>206.4033301253701</v>
+        <v>56.20914595853413</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5325540867304</v>
+        <v>24.33836991989438</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>182.3572169951894</v>
       </c>
       <c r="K32" t="n">
-        <v>319.4754365493583</v>
+        <v>319.4754365493582</v>
       </c>
       <c r="L32" t="n">
         <v>412.5792211790616</v>
       </c>
       <c r="M32" t="n">
-        <v>458.7219054253461</v>
+        <v>458.721905425346</v>
       </c>
       <c r="N32" t="n">
         <v>448.9056254068643</v>
       </c>
       <c r="O32" t="n">
-        <v>386.7139881592993</v>
+        <v>386.7139881592992</v>
       </c>
       <c r="P32" t="n">
         <v>314.2640929096516</v>
       </c>
       <c r="Q32" t="n">
-        <v>152.6080150657325</v>
+        <v>152.608015065732</v>
       </c>
       <c r="R32" t="n">
-        <v>33.43554268427462</v>
+        <v>33.43554268427461</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.46686289128622</v>
+        <v>24.4668628912862</v>
       </c>
       <c r="K33" t="n">
         <v>169.717607235904</v>
       </c>
       <c r="L33" t="n">
-        <v>290.2309100962381</v>
+        <v>290.230910096238</v>
       </c>
       <c r="M33" t="n">
         <v>391.1900470578001</v>
@@ -37163,10 +37163,10 @@
         <v>314.7614673831932</v>
       </c>
       <c r="P33" t="n">
-        <v>235.4490116004008</v>
+        <v>235.4490116004007</v>
       </c>
       <c r="Q33" t="n">
-        <v>104.1613588542008</v>
+        <v>104.1613588542007</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.43208550824276</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.724523520698</v>
+        <v>3.724523520697989</v>
       </c>
       <c r="L34" t="n">
-        <v>60.85341547768574</v>
+        <v>212.8265701988173</v>
       </c>
       <c r="M34" t="n">
-        <v>74.65545807460222</v>
+        <v>137.944603276371</v>
       </c>
       <c r="N34" t="n">
-        <v>230.3429844030985</v>
+        <v>78.36982968196691</v>
       </c>
       <c r="O34" t="n">
-        <v>56.20914595853414</v>
+        <v>208.1823006796657</v>
       </c>
       <c r="P34" t="n">
-        <v>165.168584334552</v>
+        <v>24.33836991989438</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.54592174779056</v>
+        <v>84.54592174779054</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.61592493259966</v>
+        <v>11.61592493259965</v>
       </c>
       <c r="J35" t="n">
-        <v>233.2466505597193</v>
+        <v>30.38406227405787</v>
       </c>
       <c r="K35" t="n">
-        <v>167.5022818282267</v>
+        <v>307.7995752844357</v>
       </c>
       <c r="L35" t="n">
         <v>260.6060664579301</v>
@@ -37321,16 +37321,16 @@
         <v>234.7408334381677</v>
       </c>
       <c r="P35" t="n">
-        <v>162.2909381885201</v>
+        <v>162.29093818852</v>
       </c>
       <c r="Q35" t="n">
-        <v>184.1692517263468</v>
+        <v>246.7345465557992</v>
       </c>
       <c r="R35" t="n">
-        <v>84.32497624880446</v>
+        <v>84.32497624880445</v>
       </c>
       <c r="S35" t="n">
-        <v>5.208474018208099</v>
+        <v>5.208474018208094</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.46686289128622</v>
+        <v>24.4668628912862</v>
       </c>
       <c r="K36" t="n">
-        <v>169.7176072359042</v>
+        <v>169.717607235904</v>
       </c>
       <c r="L36" t="n">
-        <v>290.2309100962381</v>
+        <v>290.230910096238</v>
       </c>
       <c r="M36" t="n">
         <v>391.1900470578001</v>
       </c>
       <c r="N36" t="n">
-        <v>417.4093536694466</v>
+        <v>417.4093536694468</v>
       </c>
       <c r="O36" t="n">
         <v>314.7614673831932</v>
       </c>
       <c r="P36" t="n">
-        <v>235.4490116004008</v>
+        <v>235.4490116004007</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.1613588542008</v>
+        <v>104.1613588542007</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.196754272900442</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37458,28 +37458,28 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4.196754272900478</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.724523520698</v>
+        <v>3.724523520697989</v>
       </c>
       <c r="L37" t="n">
-        <v>60.85341547768574</v>
+        <v>60.85341547768572</v>
       </c>
       <c r="M37" t="n">
-        <v>74.65545807460222</v>
+        <v>74.65545807460219</v>
       </c>
       <c r="N37" t="n">
-        <v>78.36982968196693</v>
+        <v>78.36982968196691</v>
       </c>
       <c r="O37" t="n">
-        <v>56.20914595853414</v>
+        <v>56.20914595853413</v>
       </c>
       <c r="P37" t="n">
-        <v>24.33836991989439</v>
+        <v>24.33836991989438</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.61592493259966</v>
+        <v>11.61592493259965</v>
       </c>
       <c r="J38" t="n">
         <v>233.2466505597193</v>
@@ -37552,22 +37552,22 @@
         <v>306.7487507042144</v>
       </c>
       <c r="N38" t="n">
-        <v>437.2297641419416</v>
+        <v>296.9324706857328</v>
       </c>
       <c r="O38" t="n">
         <v>234.7408334381677</v>
       </c>
       <c r="P38" t="n">
-        <v>162.2909381885201</v>
+        <v>162.29093818852</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.8719582701378</v>
+        <v>184.1692517263459</v>
       </c>
       <c r="R38" t="n">
-        <v>84.32497624880446</v>
+        <v>84.32497624880445</v>
       </c>
       <c r="S38" t="n">
-        <v>5.208474018208099</v>
+        <v>5.208474018208094</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.46686289128622</v>
+        <v>24.4668628912862</v>
       </c>
       <c r="K39" t="n">
         <v>169.717607235904</v>
       </c>
       <c r="L39" t="n">
-        <v>290.2309100962381</v>
+        <v>290.230910096238</v>
       </c>
       <c r="M39" t="n">
         <v>391.1900470578001</v>
       </c>
       <c r="N39" t="n">
-        <v>417.4093536694466</v>
+        <v>417.4093536694468</v>
       </c>
       <c r="O39" t="n">
         <v>314.7614673831932</v>
       </c>
       <c r="P39" t="n">
-        <v>235.4490116004008</v>
+        <v>235.4490116004007</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.1613588542008</v>
+        <v>104.1613588542007</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,28 +37701,28 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.724523520698</v>
+        <v>3.724523520697989</v>
       </c>
       <c r="L40" t="n">
-        <v>60.85341547768574</v>
+        <v>60.85341547768572</v>
       </c>
       <c r="M40" t="n">
-        <v>74.65545807460222</v>
+        <v>74.65545807460219</v>
       </c>
       <c r="N40" t="n">
-        <v>78.36982968196693</v>
+        <v>78.36982968196691</v>
       </c>
       <c r="O40" t="n">
-        <v>56.20914595853414</v>
+        <v>56.20914595853413</v>
       </c>
       <c r="P40" t="n">
-        <v>24.33836991989439</v>
+        <v>24.33836991989438</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.196754272900456</v>
+        <v>4.196754272900514</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.6159249325996</v>
+        <v>11.61592493259965</v>
       </c>
       <c r="J41" t="n">
-        <v>233.2466505597192</v>
+        <v>30.38406227405787</v>
       </c>
       <c r="K41" t="n">
-        <v>313.0080493026437</v>
+        <v>167.5022818282267</v>
       </c>
       <c r="L41" t="n">
         <v>260.6060664579301</v>
@@ -37789,22 +37789,22 @@
         <v>306.7487507042144</v>
       </c>
       <c r="N41" t="n">
-        <v>296.9324706857328</v>
+        <v>437.2297641419418</v>
       </c>
       <c r="O41" t="n">
-        <v>234.7408334381677</v>
+        <v>437.6034217238291</v>
       </c>
       <c r="P41" t="n">
-        <v>162.2909381885201</v>
+        <v>162.29093818852</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.8719582701378</v>
+        <v>43.87195827013777</v>
       </c>
       <c r="R41" t="n">
-        <v>84.3249762488044</v>
+        <v>84.32497624880445</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>5.208474018208094</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.46686289128644</v>
+        <v>24.4668628912863</v>
       </c>
       <c r="K42" t="n">
         <v>169.717607235904</v>
       </c>
       <c r="L42" t="n">
-        <v>290.2309100962381</v>
+        <v>290.230910096238</v>
       </c>
       <c r="M42" t="n">
         <v>391.1900470578001</v>
@@ -37874,10 +37874,10 @@
         <v>314.7614673831932</v>
       </c>
       <c r="P42" t="n">
-        <v>235.4490116004008</v>
+        <v>235.4490116004007</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.1613588542008</v>
+        <v>104.1613588542007</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>4.196754272900478</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.724523520698</v>
+        <v>3.724523520697989</v>
       </c>
       <c r="L43" t="n">
-        <v>60.85341547768574</v>
+        <v>60.85341547768572</v>
       </c>
       <c r="M43" t="n">
-        <v>74.65545807460222</v>
+        <v>74.65545807460219</v>
       </c>
       <c r="N43" t="n">
-        <v>78.36982968196693</v>
+        <v>78.36982968196691</v>
       </c>
       <c r="O43" t="n">
-        <v>56.20914595853414</v>
+        <v>56.20914595853413</v>
       </c>
       <c r="P43" t="n">
-        <v>28.53512419279518</v>
+        <v>24.33836991989438</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.61592493259966</v>
+        <v>11.61592493259959</v>
       </c>
       <c r="J44" t="n">
-        <v>30.38406227405788</v>
+        <v>30.38406227405787</v>
       </c>
       <c r="K44" t="n">
         <v>167.5022818282267</v>
@@ -38029,19 +38029,19 @@
         <v>296.9324706857328</v>
       </c>
       <c r="O44" t="n">
-        <v>234.7408334381677</v>
+        <v>375.0381268943768</v>
       </c>
       <c r="P44" t="n">
-        <v>302.5882316447292</v>
+        <v>162.29093818852</v>
       </c>
       <c r="Q44" t="n">
-        <v>246.7345465557992</v>
+        <v>246.7345465557991</v>
       </c>
       <c r="R44" t="n">
-        <v>84.32497624880446</v>
+        <v>84.32497624880439</v>
       </c>
       <c r="S44" t="n">
-        <v>5.208474018208099</v>
+        <v>5.208474018208037</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.46686289128622</v>
+        <v>24.4668628912862</v>
       </c>
       <c r="K45" t="n">
         <v>169.717607235904</v>
       </c>
       <c r="L45" t="n">
-        <v>290.2309100962381</v>
+        <v>290.230910096238</v>
       </c>
       <c r="M45" t="n">
         <v>391.1900470578001</v>
@@ -38111,10 +38111,10 @@
         <v>314.7614673831932</v>
       </c>
       <c r="P45" t="n">
-        <v>235.4490116004008</v>
+        <v>235.4490116004007</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.1613588542008</v>
+        <v>104.1613588542007</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>4.196754272900938</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38175,28 +38175,28 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.724523520698</v>
+        <v>3.724523520697989</v>
       </c>
       <c r="L46" t="n">
-        <v>60.85341547768574</v>
+        <v>60.85341547768572</v>
       </c>
       <c r="M46" t="n">
-        <v>74.65545807460222</v>
+        <v>74.65545807460219</v>
       </c>
       <c r="N46" t="n">
-        <v>78.36982968196693</v>
+        <v>78.36982968196691</v>
       </c>
       <c r="O46" t="n">
-        <v>56.20914595853414</v>
+        <v>56.20914595853413</v>
       </c>
       <c r="P46" t="n">
-        <v>24.33836991989439</v>
+        <v>24.33836991989438</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.196754272900456</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
